--- a/data/trans_orig/P41B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41B-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5460</v>
+        <v>6541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002867235149893299</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01300538101447248</v>
+        <v>0.01558034666262904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6022</v>
+        <v>5569</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00152112886762194</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007609581446334471</v>
+        <v>0.007036923085453437</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7902</v>
+        <v>7184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005912798290968999</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0212697892350273</v>
+        <v>0.01933767622979699</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6841</v>
+        <v>6512</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004468395324302366</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01629467362213029</v>
+        <v>0.01551215548446658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -943,19 +943,19 @@
         <v>4073</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9656</v>
+        <v>10153</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005146511978820116</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001292088384791473</v>
+        <v>0.001290319085424437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01220134035396163</v>
+        <v>0.01282975310309187</v>
       </c>
     </row>
     <row r="8">
@@ -972,19 +972,19 @@
         <v>6003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2879</v>
+        <v>2075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13027</v>
+        <v>12179</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01615670092515154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007748756729274515</v>
+        <v>0.005584274487199193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03506256065699294</v>
+        <v>0.03278249217161912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -993,19 +993,19 @@
         <v>8674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3948</v>
+        <v>4057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16694</v>
+        <v>16159</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02066039008524082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009404221638508369</v>
+        <v>0.009663087263185948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03976319737189227</v>
+        <v>0.03848863415999947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1014,19 +1014,19 @@
         <v>14676</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8733</v>
+        <v>8256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25079</v>
+        <v>24191</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01854600324395952</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01103602824212775</v>
+        <v>0.01043299136057431</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03169111755943049</v>
+        <v>0.03056958746438289</v>
       </c>
     </row>
     <row r="9">
@@ -1043,19 +1043,19 @@
         <v>8028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3975</v>
+        <v>3992</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15297</v>
+        <v>16166</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02160862824645088</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01070017407559553</v>
+        <v>0.01074579428320867</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04117503511666373</v>
+        <v>0.04351209597192925</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1064,19 +1064,19 @@
         <v>8973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3704</v>
+        <v>4170</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17111</v>
+        <v>18104</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02137334059271969</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008821808427387322</v>
+        <v>0.009932061928174691</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04075655037333517</v>
+        <v>0.04312146519360222</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1085,19 +1085,19 @@
         <v>17001</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10247</v>
+        <v>10670</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27492</v>
+        <v>29032</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02148380317157034</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01294820093635362</v>
+        <v>0.01348383052761633</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03474057709677181</v>
+        <v>0.03668626299310209</v>
       </c>
     </row>
     <row r="10">
@@ -1114,19 +1114,19 @@
         <v>13821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7344</v>
+        <v>7789</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23020</v>
+        <v>22652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03720063784138833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01976797622193288</v>
+        <v>0.02096634639477312</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06196264009658612</v>
+        <v>0.06097057757194656</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1135,19 +1135,19 @@
         <v>16507</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10113</v>
+        <v>10199</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25650</v>
+        <v>25314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03931896322760178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02408777318180092</v>
+        <v>0.02429420302637362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06109622444821626</v>
+        <v>0.06029589251419912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1156,19 +1156,19 @@
         <v>30328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20473</v>
+        <v>20516</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41721</v>
+        <v>42432</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03832445424553139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02587076112326792</v>
+        <v>0.02592531453201218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05272151142099188</v>
+        <v>0.05361998954907052</v>
       </c>
     </row>
     <row r="11">
@@ -1185,19 +1185,19 @@
         <v>341474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>329325</v>
+        <v>329963</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>350513</v>
+        <v>350478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9191212346960402</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8864199434245306</v>
+        <v>0.8881382302782593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9434524588031431</v>
+        <v>0.9433562177274614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>393</v>
@@ -1206,19 +1206,19 @@
         <v>382593</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>369428</v>
+        <v>368794</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>392443</v>
+        <v>392718</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9113116756202421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8799536329641243</v>
+        <v>0.8784433922453487</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9347728543010895</v>
+        <v>0.9354290977379423</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>739</v>
@@ -1227,19 +1227,19 @@
         <v>724067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>707740</v>
+        <v>706483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>738559</v>
+        <v>739685</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9149780984924967</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8943456061176982</v>
+        <v>0.892757196622456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9332915171302606</v>
+        <v>0.9347142999831299</v>
       </c>
     </row>
     <row r="12">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5404</v>
+        <v>5131</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002233129973874522</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01129053131504253</v>
+        <v>0.01072083702788796</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5322</v>
+        <v>5315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001868529262208173</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009382712968510284</v>
+        <v>0.00936923555398215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7393</v>
+        <v>7465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002035376497550827</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007068615000245198</v>
+        <v>0.007137659446979533</v>
       </c>
     </row>
     <row r="14">
@@ -1496,19 +1496,19 @@
         <v>7956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3828</v>
+        <v>2905</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17254</v>
+        <v>16171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01662410136832948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007998171608186621</v>
+        <v>0.006070475215344349</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03605089174908555</v>
+        <v>0.03378843441686837</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1517,19 +1517,19 @@
         <v>3337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8832</v>
+        <v>9013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005882494425289314</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001816148599003684</v>
+        <v>0.00182340187906552</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01556925396347068</v>
+        <v>0.01588898627896074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1538,19 +1538,19 @@
         <v>11293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5350</v>
+        <v>5244</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20873</v>
+        <v>20074</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01079802904778832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005115873388450954</v>
+        <v>0.00501394746595099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0199579395080404</v>
+        <v>0.0191934392416877</v>
       </c>
     </row>
     <row r="17">
@@ -1567,19 +1567,19 @@
         <v>20451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12206</v>
+        <v>12832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31801</v>
+        <v>33057</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04273173549154829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02550374295713946</v>
+        <v>0.02681123609192092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06644491529038182</v>
+        <v>0.06906982710555354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1588,19 +1588,19 @@
         <v>13944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8204</v>
+        <v>7747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22568</v>
+        <v>23343</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02458158610162733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01446263839818513</v>
+        <v>0.01365655555274389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03978489531283607</v>
+        <v>0.04115029730780672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1609,19 +1609,19 @@
         <v>34395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23351</v>
+        <v>23352</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49289</v>
+        <v>47975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03288739064305049</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02232679311667626</v>
+        <v>0.02232858801329569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04712800035306589</v>
+        <v>0.04587119807673647</v>
       </c>
     </row>
     <row r="18">
@@ -1638,19 +1638,19 @@
         <v>8348</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4088</v>
+        <v>4101</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15507</v>
+        <v>16775</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0174433406935312</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008541126182943922</v>
+        <v>0.008569785501215029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03240135273581324</v>
+        <v>0.03505017005029976</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1659,19 +1659,19 @@
         <v>9719</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4541</v>
+        <v>5060</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17848</v>
+        <v>17546</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0171334704146764</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008004924154076273</v>
+        <v>0.008920268378042155</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03146417185851181</v>
+        <v>0.030931214230564</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -1680,19 +1680,19 @@
         <v>18067</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10723</v>
+        <v>11210</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28135</v>
+        <v>27859</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01727527211085382</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01025330308452971</v>
+        <v>0.01071848960944923</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.026901718854057</v>
+        <v>0.02663770740626077</v>
       </c>
     </row>
     <row r="19">
@@ -1709,19 +1709,19 @@
         <v>9076</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4288</v>
+        <v>4143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16348</v>
+        <v>17154</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0189638391664953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008959293479216012</v>
+        <v>0.008655508694985067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03415766269181263</v>
+        <v>0.03584191344138885</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1730,19 +1730,19 @@
         <v>16038</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9303</v>
+        <v>8859</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26422</v>
+        <v>26182</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02827369792994567</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01639961464727771</v>
+        <v>0.01561816737643282</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04657824544155435</v>
+        <v>0.04615502576541683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1751,19 +1751,19 @@
         <v>25114</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15365</v>
+        <v>16286</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36184</v>
+        <v>36372</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02401335463820315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01469087693535692</v>
+        <v>0.01557193537278112</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03459733963011166</v>
+        <v>0.03477739612116795</v>
       </c>
     </row>
     <row r="20">
@@ -1780,19 +1780,19 @@
         <v>431699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>417154</v>
+        <v>416145</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>444030</v>
+        <v>443726</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9020038533062212</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8716125413706095</v>
+        <v>0.8695052253986664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9277681113222656</v>
+        <v>0.9271334370484886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>490</v>
@@ -1801,19 +1801,19 @@
         <v>523157</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>509275</v>
+        <v>509337</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>534550</v>
+        <v>534694</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9222602218662531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8977889547221398</v>
+        <v>0.8978981905886234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9423446482866905</v>
+        <v>0.9425982773326907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>904</v>
@@ -1822,19 +1822,19 @@
         <v>954856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>933783</v>
+        <v>934606</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>972135</v>
+        <v>973079</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9129905770625534</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8928416407588349</v>
+        <v>0.8936283465683517</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9295124623321991</v>
+        <v>0.9304148751348027</v>
       </c>
     </row>
     <row r="21">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4959</v>
+        <v>4946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00252195812274263</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01275137899580733</v>
+        <v>0.0127178974467167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5864</v>
+        <v>6263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001366826132677897</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00817190938834686</v>
+        <v>0.00872892354676142</v>
       </c>
     </row>
     <row r="23">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5456</v>
+        <v>6081</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005406926175269292</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01660072178677876</v>
+        <v>0.01850339280988277</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2104,19 +2104,19 @@
         <v>2939</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7793</v>
+        <v>8724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007556884261091691</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002406453021237663</v>
+        <v>0.002403556053538007</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02004062566301071</v>
+        <v>0.02243474793286836</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2125,19 +2125,19 @@
         <v>4716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1830</v>
+        <v>1787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10299</v>
+        <v>10486</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006572139375823334</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002550806167560503</v>
+        <v>0.002490222333250404</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01435353199821575</v>
+        <v>0.01461392843256919</v>
       </c>
     </row>
     <row r="26">
@@ -2154,19 +2154,19 @@
         <v>3682</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9994</v>
+        <v>9538</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01120412299731882</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003037479156582311</v>
+        <v>0.003032593502854936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03040935410886621</v>
+        <v>0.02902010074910418</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2175,19 +2175,19 @@
         <v>5628</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1853</v>
+        <v>1949</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12917</v>
+        <v>13197</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.014473098927225</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00476519044094301</v>
+        <v>0.005010585743856788</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03321544473101028</v>
+        <v>0.03393485637082259</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2196,19 +2196,19 @@
         <v>9311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4166</v>
+        <v>4424</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18494</v>
+        <v>18256</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01297581051575855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005806159869811401</v>
+        <v>0.006165044990253421</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02577474494240212</v>
+        <v>0.02544229196504809</v>
       </c>
     </row>
     <row r="27">
@@ -2225,19 +2225,19 @@
         <v>21067</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13233</v>
+        <v>13180</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31044</v>
+        <v>31666</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06410074446007244</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04026445497307281</v>
+        <v>0.04010268277612696</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09445887436392349</v>
+        <v>0.09635177911189891</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -2246,19 +2246,19 @@
         <v>14150</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7595</v>
+        <v>8242</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21788</v>
+        <v>21611</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0363876278260765</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01952931610680483</v>
+        <v>0.02119295768250254</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05602775494994205</v>
+        <v>0.05557143877570153</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>36</v>
@@ -2267,19 +2267,19 @@
         <v>35217</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>25236</v>
+        <v>25424</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>48101</v>
+        <v>49316</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04908106126560974</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03516993972639915</v>
+        <v>0.03543220746728709</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06703586473929656</v>
+        <v>0.06872936084053298</v>
       </c>
     </row>
     <row r="28">
@@ -2296,19 +2296,19 @@
         <v>7513</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2865</v>
+        <v>2914</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16553</v>
+        <v>16854</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02285856265079461</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008717763049197826</v>
+        <v>0.008866722916560177</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05036530358237176</v>
+        <v>0.05128306101155079</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2317,19 +2317,19 @@
         <v>10637</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5064</v>
+        <v>5330</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18742</v>
+        <v>18831</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02735260892089416</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01302310834863493</v>
+        <v>0.01370720152546745</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04819355470041533</v>
+        <v>0.04842342011872906</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -2338,19 +2338,19 @@
         <v>18149</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10686</v>
+        <v>10374</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29696</v>
+        <v>30041</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02529420177899537</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01489304936071464</v>
+        <v>0.01445790455354316</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04138668436856681</v>
+        <v>0.04186746531990166</v>
       </c>
     </row>
     <row r="29">
@@ -2367,19 +2367,19 @@
         <v>294613</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>282047</v>
+        <v>281932</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>304512</v>
+        <v>305335</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8964296437165449</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8581947822889687</v>
+        <v>0.8578433174470108</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9265487236646773</v>
+        <v>0.9290528716371276</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>363</v>
@@ -2388,19 +2388,19 @@
         <v>354547</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>342380</v>
+        <v>342271</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>364822</v>
+        <v>364908</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.91170782194197</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8804220411266509</v>
+        <v>0.880140656104721</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9381308599085563</v>
+        <v>0.9383522978099098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>646</v>
@@ -2409,19 +2409,19 @@
         <v>649161</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>632137</v>
+        <v>630649</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>663267</v>
+        <v>662910</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9047099609311351</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8809841836498304</v>
+        <v>0.8789105611833479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9243692403972079</v>
+        <v>0.9238717038767418</v>
       </c>
     </row>
     <row r="30">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8646</v>
+        <v>9107</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002577059311482497</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01407759471594231</v>
+        <v>0.01482900893743461</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9372</v>
+        <v>7919</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001498111294104157</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008871470141205788</v>
+        <v>0.007495632838313158</v>
       </c>
     </row>
     <row r="32">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5867</v>
+        <v>5111</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003800483372034171</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01326458941413896</v>
+        <v>0.01155544129457906</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8980</v>
+        <v>6390</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002594476045765208</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01462201424627325</v>
+        <v>0.01040537664379469</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2618,19 +2618,19 @@
         <v>3274</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9639</v>
+        <v>10482</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003099400091488122</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0007879079426835748</v>
+        <v>0.000791384518983647</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.009123613068180939</v>
+        <v>0.009921473475160269</v>
       </c>
     </row>
     <row r="33">
@@ -2694,19 +2694,19 @@
         <v>3233</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9791</v>
+        <v>9608</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00730864560383015</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001884355935991067</v>
+        <v>0.001903619479743699</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02213679191778447</v>
+        <v>0.02172295167940872</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2715,19 +2715,19 @@
         <v>6486</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2491</v>
+        <v>2602</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14754</v>
+        <v>15060</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01056113200423936</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004055969391371674</v>
+        <v>0.00423706391946737</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02402412496907531</v>
+        <v>0.02452207938729188</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2736,19 +2736,19 @@
         <v>9719</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4854</v>
+        <v>4774</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18310</v>
+        <v>18305</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00919940015055813</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004594287000037028</v>
+        <v>0.004518537273838682</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0173317676950488</v>
+        <v>0.01732653444137977</v>
       </c>
     </row>
     <row r="35">
@@ -2765,19 +2765,19 @@
         <v>2672</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7086</v>
+        <v>7154</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006042100649678295</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001923389585852549</v>
+        <v>0.001916530707543941</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01602020103693106</v>
+        <v>0.01617402455365954</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9749</v>
+        <v>9819</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005288539835263411</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01587363652500905</v>
+        <v>0.01598879799122436</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2807,19 +2807,19 @@
         <v>5920</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1762</v>
+        <v>1834</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14546</v>
+        <v>14949</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005604036239659019</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001667988560384176</v>
+        <v>0.001735739592775101</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01376848132115445</v>
+        <v>0.01415030917173022</v>
       </c>
     </row>
     <row r="36">
@@ -2836,19 +2836,19 @@
         <v>16687</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10168</v>
+        <v>10598</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26810</v>
+        <v>26099</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03772622646235411</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02298767886287086</v>
+        <v>0.02396066389585792</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06061421025940708</v>
+        <v>0.05900547736342277</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>20</v>
@@ -2857,19 +2857,19 @@
         <v>20955</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12247</v>
+        <v>13098</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31382</v>
+        <v>30960</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03412080452003517</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01994168791266449</v>
+        <v>0.0213276412765306</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05109900549364009</v>
+        <v>0.05041104272157859</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>39</v>
@@ -2878,19 +2878,19 @@
         <v>37642</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27173</v>
+        <v>27222</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>51790</v>
+        <v>51315</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03563030134812313</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02572107363348727</v>
+        <v>0.02576723990932836</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04902275266504418</v>
+        <v>0.0485729948663723</v>
       </c>
     </row>
     <row r="37">
@@ -2907,19 +2907,19 @@
         <v>17737</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10702</v>
+        <v>11676</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>27268</v>
+        <v>28251</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04010089772834738</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02419664672703771</v>
+        <v>0.02639678182522012</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06164965199800394</v>
+        <v>0.06387029901842126</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -2928,19 +2928,19 @@
         <v>12123</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6870</v>
+        <v>6962</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21160</v>
+        <v>21993</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01973968388822861</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01118663630999421</v>
+        <v>0.01133683515097835</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03445369579545638</v>
+        <v>0.0358107000556239</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>31</v>
@@ -2949,19 +2949,19 @@
         <v>29860</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21095</v>
+        <v>19729</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>41521</v>
+        <v>41640</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02826439700070048</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01996777432235929</v>
+        <v>0.01867483324789754</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03930227304512747</v>
+        <v>0.03941508271494006</v>
       </c>
     </row>
     <row r="38">
@@ -2978,19 +2978,19 @@
         <v>400301</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>387466</v>
+        <v>388080</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>410798</v>
+        <v>410834</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9050216461837559</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8760031127424223</v>
+        <v>0.8773919381747662</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9287526704971701</v>
+        <v>0.9288355211820372</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>546</v>
@@ -2999,19 +2999,19 @@
         <v>568158</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>553195</v>
+        <v>553167</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>580512</v>
+        <v>580222</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9251183043949858</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9007540592768392</v>
+        <v>0.9007087366220757</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9452338069140862</v>
+        <v>0.9447625415986526</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>975</v>
@@ -3020,19 +3020,19 @@
         <v>968459</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>948353</v>
+        <v>948555</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>983648</v>
+        <v>985504</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.916704353875367</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8976735149078383</v>
+        <v>0.8978643688673414</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.931081682563239</v>
+        <v>0.9328383598248681</v>
       </c>
     </row>
     <row r="39">
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5373</v>
+        <v>6807</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0006592968703508016</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.003314329564092705</v>
+        <v>0.004198834643901253</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3145,19 +3145,19 @@
         <v>4827</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1956</v>
+        <v>1203</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12224</v>
+        <v>11158</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00242554961874705</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0009828688255274789</v>
+        <v>0.0006042611537559468</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006142363123502954</v>
+        <v>0.005606552811123738</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -3166,19 +3166,19 @@
         <v>5896</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2267</v>
+        <v>2133</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13385</v>
+        <v>13318</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001632669137373615</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006276984360173781</v>
+        <v>0.0005907549184701153</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003706455795732052</v>
+        <v>0.003687942612272566</v>
       </c>
     </row>
     <row r="41">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5894</v>
+        <v>5825</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001036957156562686</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.003635647623422805</v>
+        <v>0.003593234278050316</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9097</v>
+        <v>7655</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0008006523028054909</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004570949881258702</v>
+        <v>0.003846557383531735</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3237,19 +3237,19 @@
         <v>3274</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9790</v>
+        <v>9798</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0009067308390557575</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0002307620051060635</v>
+        <v>0.0002304713866022228</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.002711113368767954</v>
+        <v>0.002713283703914424</v>
       </c>
     </row>
     <row r="42">
@@ -3313,19 +3313,19 @@
         <v>15163</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8148</v>
+        <v>8625</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>24828</v>
+        <v>26068</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.009353440573741325</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.005026056635731084</v>
+        <v>0.005320698711478346</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01531571094753925</v>
+        <v>0.01608061732134333</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -3334,19 +3334,19 @@
         <v>14638</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>8030</v>
+        <v>8115</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>23651</v>
+        <v>23250</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.00735519081292326</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.004034898559661088</v>
+        <v>0.004077736766576752</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01188415947026769</v>
+        <v>0.01168282797333944</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>28</v>
@@ -3355,19 +3355,19 @@
         <v>29800</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>19640</v>
+        <v>19259</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>43573</v>
+        <v>41708</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.008252216017102212</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005438614027994321</v>
+        <v>0.005333139448944783</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0120661083471723</v>
+        <v>0.01154950314408031</v>
       </c>
     </row>
     <row r="44">
@@ -3384,19 +3384,19 @@
         <v>32809</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22448</v>
+        <v>22200</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>46276</v>
+        <v>46895</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0202387447316995</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01384733373075947</v>
+        <v>0.01369473665963551</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02854609012377717</v>
+        <v>0.02892846102369653</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>28</v>
@@ -3405,19 +3405,19 @@
         <v>31494</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>20626</v>
+        <v>21583</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>45437</v>
+        <v>45412</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0158252971060426</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01036448116995507</v>
+        <v>0.01084491969613093</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02283163219666158</v>
+        <v>0.02281882378473934</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>57</v>
@@ -3426,19 +3426,19 @@
         <v>64303</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>49498</v>
+        <v>48918</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>82648</v>
+        <v>82160</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01780651778984602</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01370671851854681</v>
+        <v>0.01354607969138079</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02288659551625793</v>
+        <v>0.02275135210202493</v>
       </c>
     </row>
     <row r="45">
@@ -3455,19 +3455,19 @@
         <v>54130</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>40606</v>
+        <v>41862</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>68817</v>
+        <v>69935</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03339123700600733</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02504886411845287</v>
+        <v>0.02582322390037746</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04245099163851868</v>
+        <v>0.04314095768039682</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>52</v>
@@ -3476,19 +3476,19 @@
         <v>53798</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>39903</v>
+        <v>40046</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>68335</v>
+        <v>69125</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02703257799674414</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02005086126182358</v>
+        <v>0.02012262428995094</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03433719802359178</v>
+        <v>0.03473407749244591</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>109</v>
@@ -3497,19 +3497,19 @@
         <v>107928</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>89251</v>
+        <v>88892</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>128943</v>
+        <v>131813</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02988701466824087</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02471518590598517</v>
+        <v>0.0246156516738583</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03570658612424226</v>
+        <v>0.03650115789733838</v>
       </c>
     </row>
     <row r="46">
@@ -3526,19 +3526,19 @@
         <v>48147</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>35430</v>
+        <v>36453</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>63836</v>
+        <v>64324</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02970018527585422</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0218554680251824</v>
+        <v>0.02248698825330225</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03937840815582234</v>
+        <v>0.03967963269763392</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>53</v>
@@ -3547,19 +3547,19 @@
         <v>55306</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>42658</v>
+        <v>41025</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>72321</v>
+        <v>71458</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02779019872053583</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02143524679274056</v>
+        <v>0.02061423163393692</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03634012719071746</v>
+        <v>0.03590669945680322</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>100</v>
@@ -3568,19 +3568,19 @@
         <v>103452</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>84190</v>
+        <v>85342</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>124535</v>
+        <v>124982</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02864760209090437</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02331373559300195</v>
+        <v>0.02363260396246726</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03448570063393509</v>
+        <v>0.03460949547630336</v>
       </c>
     </row>
     <row r="47">
@@ -3597,19 +3597,19 @@
         <v>1468087</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1443477</v>
+        <v>1441873</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1489600</v>
+        <v>1489314</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9056201383857841</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8904385072213263</v>
+        <v>0.8894494692275214</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9188907135903069</v>
+        <v>0.918714231814547</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1792</v>
@@ -3618,19 +3618,19 @@
         <v>1828454</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1801535</v>
+        <v>1802467</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1851793</v>
+        <v>1852086</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9187705334422016</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9052439585810699</v>
+        <v>0.9057122487910542</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9304976801006281</v>
+        <v>0.9306450194835636</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3264</v>
@@ -3639,19 +3639,19 @@
         <v>3296542</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3258263</v>
+        <v>3262555</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3329360</v>
+        <v>3331901</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9128672494574772</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9022672510724759</v>
+        <v>0.9034558082533062</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9219552560880886</v>
+        <v>0.9226589360736709</v>
       </c>
     </row>
     <row r="48">
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6792</v>
+        <v>7166</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004915194105883361</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01670973342818315</v>
+        <v>0.01763151575954736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6804</v>
+        <v>6952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002583182289615889</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008797261050147527</v>
+        <v>0.008989844686064242</v>
       </c>
     </row>
     <row r="5">
@@ -4140,19 +4140,19 @@
         <v>7761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3659</v>
+        <v>3867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15370</v>
+        <v>15268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02115159183422221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009970938036325242</v>
+        <v>0.01053895098369109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04188811002314202</v>
+        <v>0.04160963830501686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -4161,19 +4161,19 @@
         <v>11284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5228</v>
+        <v>6033</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18554</v>
+        <v>18806</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.027761977469959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01286335958393336</v>
+        <v>0.01484242084960472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04564877717184501</v>
+        <v>0.04626830918443564</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4182,19 +4182,19 @@
         <v>19045</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12014</v>
+        <v>12117</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29167</v>
+        <v>28672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02462568273153331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0155351223394867</v>
+        <v>0.01566774852421428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03771353044197073</v>
+        <v>0.03707361941314344</v>
       </c>
     </row>
     <row r="8">
@@ -4211,19 +4211,19 @@
         <v>4367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11107</v>
+        <v>10784</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01190040476544599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002908076482795608</v>
+        <v>0.002927199419558436</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03027058042557871</v>
+        <v>0.02938938543901794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6992</v>
+        <v>7038</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004938954753734334</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01720339824337785</v>
+        <v>0.01731673278623129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4253,19 +4253,19 @@
         <v>6374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2067</v>
+        <v>2292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13665</v>
+        <v>13829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008241811840545009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002672316186282425</v>
+        <v>0.002963391478131553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01766902325517027</v>
+        <v>0.01788179510828711</v>
       </c>
     </row>
     <row r="9">
@@ -4282,19 +4282,19 @@
         <v>13451</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7594</v>
+        <v>7834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22301</v>
+        <v>22809</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03665969835293134</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02069598971891237</v>
+        <v>0.0213495334396483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0607777093794069</v>
+        <v>0.06216165419902269</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -4303,19 +4303,19 @@
         <v>12608</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7584</v>
+        <v>6760</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20349</v>
+        <v>20501</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03101985531333964</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01866046130689355</v>
+        <v>0.01663239291194511</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05006532322937961</v>
+        <v>0.05044073710785403</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -4324,19 +4324,19 @@
         <v>26059</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17106</v>
+        <v>17488</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37180</v>
+        <v>37019</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03369567651732402</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02211927245290445</v>
+        <v>0.02261214535227618</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04807483136729434</v>
+        <v>0.04786682883679215</v>
       </c>
     </row>
     <row r="10">
@@ -4353,19 +4353,19 @@
         <v>4937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10952</v>
+        <v>11042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01345374238559969</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005167287955023315</v>
+        <v>0.005153655289591567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02984855214692095</v>
+        <v>0.03009341891462834</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4374,19 +4374,19 @@
         <v>10746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5398</v>
+        <v>5639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18726</v>
+        <v>19460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0264395629490278</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0132799793989822</v>
+        <v>0.01387507142226807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04607271619381689</v>
+        <v>0.04787768344176822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4395,19 +4395,19 @@
         <v>15683</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8275</v>
+        <v>8852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25411</v>
+        <v>25470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02027844573870331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01070019715229745</v>
+        <v>0.0114456937989275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03285727657705165</v>
+        <v>0.0329336457564831</v>
       </c>
     </row>
     <row r="11">
@@ -4424,19 +4424,19 @@
         <v>336410</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>323198</v>
+        <v>325627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344514</v>
+        <v>345832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9168345626618007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8808260650951236</v>
+        <v>0.8874447908299677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9389187635657287</v>
+        <v>0.9425111476772347</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>343</v>
@@ -4445,19 +4445,19 @@
         <v>367803</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>356002</v>
+        <v>354271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>378764</v>
+        <v>378311</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9049244554080559</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8758908349357013</v>
+        <v>0.8716322905676435</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9318921453224462</v>
+        <v>0.9307791751164017</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>656</v>
@@ -4466,19 +4466,19 @@
         <v>704212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>684554</v>
+        <v>687138</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>718523</v>
+        <v>718378</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9105752008822785</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8851561970285652</v>
+        <v>0.8884974229182029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9290793383217761</v>
+        <v>0.9288923213143664</v>
       </c>
     </row>
     <row r="12">
@@ -4573,16 +4573,16 @@
         <v>928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8930</v>
+        <v>8532</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006056179053598298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001861462671364566</v>
+        <v>0.001861439017562262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01791415376348462</v>
+        <v>0.01711407057048171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5160</v>
+        <v>5091</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001666209372713425</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.00831302979710773</v>
+        <v>0.008202232693191661</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -4612,19 +4612,19 @@
         <v>4053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9394</v>
+        <v>10271</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003621549964298032</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0009171189986153886</v>
+        <v>0.0009157557343506266</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008393184645624462</v>
+        <v>0.009176654421901034</v>
       </c>
     </row>
     <row r="14">
@@ -4641,19 +4641,19 @@
         <v>3067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8051</v>
+        <v>8250</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006152074712727134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001901359712742414</v>
+        <v>0.001907728362297902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0161500955310068</v>
+        <v>0.01654913388754218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6224</v>
+        <v>6293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002011224599505176</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0100269804513807</v>
+        <v>0.0101389267959373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4683,19 +4683,19 @@
         <v>4315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1127</v>
+        <v>980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10391</v>
+        <v>10168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00385560460634353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001006757100267313</v>
+        <v>0.0008753854992578358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009283783780103961</v>
+        <v>0.009084474631484044</v>
       </c>
     </row>
     <row r="15">
@@ -4759,19 +4759,19 @@
         <v>34012</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23802</v>
+        <v>23694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46938</v>
+        <v>46799</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06822802626389023</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04774521844550532</v>
+        <v>0.04752909635243006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09415640901504682</v>
+        <v>0.09387815780116739</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -4780,19 +4780,19 @@
         <v>48344</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35192</v>
+        <v>35875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64420</v>
+        <v>63908</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0778862373166417</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05669641267773939</v>
+        <v>0.0577975788386109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1037855120338087</v>
+        <v>0.1029603228627347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -4801,19 +4801,19 @@
         <v>82357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67558</v>
+        <v>64952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103760</v>
+        <v>102209</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0735843643001225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06036155501461522</v>
+        <v>0.0580335965819341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09270730640585044</v>
+        <v>0.09132163076561094</v>
       </c>
     </row>
     <row r="17">
@@ -4830,19 +4830,19 @@
         <v>16704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9173</v>
+        <v>9501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26501</v>
+        <v>27980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03350871527098165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01840072372001719</v>
+        <v>0.0190582367273848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05316009976348302</v>
+        <v>0.05612720827370056</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -4851,19 +4851,19 @@
         <v>8424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4156</v>
+        <v>3998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16703</v>
+        <v>15654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01357236165017306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006696116538031223</v>
+        <v>0.006440315040614337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02691015822430395</v>
+        <v>0.0252197338253028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -4872,19 +4872,19 @@
         <v>25129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16484</v>
+        <v>15586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38487</v>
+        <v>37317</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02245223197198682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01472807982728723</v>
+        <v>0.01392584001926159</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03438753705110326</v>
+        <v>0.03334211807492504</v>
       </c>
     </row>
     <row r="18">
@@ -4901,19 +4901,19 @@
         <v>8039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3084</v>
+        <v>3799</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15033</v>
+        <v>16088</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0161264053694891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006185675772332105</v>
+        <v>0.007620736503517035</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03015550016658967</v>
+        <v>0.0322713795054055</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -4922,19 +4922,19 @@
         <v>24398</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15649</v>
+        <v>14856</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37095</v>
+        <v>36661</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.039306161507478</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02521181293165451</v>
+        <v>0.02393344526151716</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05976222468108769</v>
+        <v>0.05906285890811754</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -4943,19 +4943,19 @@
         <v>32437</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22258</v>
+        <v>22057</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46888</v>
+        <v>47965</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02898164417037733</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01988742859601543</v>
+        <v>0.0197071469477258</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04189372394577594</v>
+        <v>0.04285599205316777</v>
       </c>
     </row>
     <row r="19">
@@ -4972,19 +4972,19 @@
         <v>7801</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3884</v>
+        <v>3804</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15549</v>
+        <v>15110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01564925823119257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007791919623623535</v>
+        <v>0.007630051240482998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03119118292810753</v>
+        <v>0.03031047461266399</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4993,19 +4993,19 @@
         <v>19551</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12163</v>
+        <v>11082</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32913</v>
+        <v>30394</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03149801112357729</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01959494423452303</v>
+        <v>0.01785425097804112</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05302510634045165</v>
+        <v>0.04896691522954918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -5014,19 +5014,19 @@
         <v>27352</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17602</v>
+        <v>17958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39519</v>
+        <v>39679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02443880294922213</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01572696549428971</v>
+        <v>0.01604526079537512</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03530977402522339</v>
+        <v>0.03545199437382603</v>
       </c>
     </row>
     <row r="20">
@@ -5043,19 +5043,19 @@
         <v>425869</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>409694</v>
+        <v>408967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>442020</v>
+        <v>441802</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.854279341098121</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8218343811570578</v>
+        <v>0.8203750846187505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8866777876801467</v>
+        <v>0.886241417706248</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>473</v>
@@ -5064,19 +5064,19 @@
         <v>517706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>495845</v>
+        <v>497080</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>534927</v>
+        <v>536421</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8340597944299114</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7988409967824206</v>
+        <v>0.8008297632455458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8618034416286634</v>
+        <v>0.8642105822395335</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>862</v>
@@ -5085,19 +5085,19 @@
         <v>943574</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>917386</v>
+        <v>916509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>967749</v>
+        <v>967502</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8430658020376497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8196667697311135</v>
+        <v>0.8188835442652048</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8646650665326594</v>
+        <v>0.8644443435452677</v>
       </c>
     </row>
     <row r="21">
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7383</v>
+        <v>7334</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003700039522828737</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0151032596252996</v>
+        <v>0.01500178807925014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9123</v>
+        <v>10198</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002080623158301505</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01049422459210132</v>
+        <v>0.01173120448319467</v>
       </c>
     </row>
     <row r="23">
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7020</v>
+        <v>7008</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005532807927889192</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0184498277537564</v>
+        <v>0.01841975209919625</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6323</v>
+        <v>6325</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004081577655500219</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01293405266289486</v>
+        <v>0.0129397073756616</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -5294,19 +5294,19 @@
         <v>4100</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9454</v>
+        <v>9392</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004716745479331271</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001153542754194036</v>
+        <v>0.001157214522596335</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01087536050500883</v>
+        <v>0.01080354334238894</v>
       </c>
     </row>
     <row r="24">
@@ -5370,19 +5370,19 @@
         <v>15258</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8856</v>
+        <v>8642</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24759</v>
+        <v>23970</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04010223283346377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02327686696794189</v>
+        <v>0.02271386127338873</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06507257290406404</v>
+        <v>0.06299981113117394</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -5391,19 +5391,19 @@
         <v>31770</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21580</v>
+        <v>21822</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45160</v>
+        <v>45963</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06499104390484078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04414426075765872</v>
+        <v>0.04463972656078804</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09238081784346594</v>
+        <v>0.09402357026364452</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -5412,19 +5412,19 @@
         <v>47028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34496</v>
+        <v>33905</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63082</v>
+        <v>62759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05409782298275711</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03968167404950373</v>
+        <v>0.03900217975097228</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0725649691783239</v>
+        <v>0.07219305470973753</v>
       </c>
     </row>
     <row r="26">
@@ -5441,19 +5441,19 @@
         <v>17719</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10306</v>
+        <v>9356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28673</v>
+        <v>29905</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04656953217353823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02708569409775886</v>
+        <v>0.02459087730947847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07536028133365348</v>
+        <v>0.07859699726435954</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -5462,19 +5462,19 @@
         <v>15999</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8774</v>
+        <v>9323</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27219</v>
+        <v>28440</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03272749064703712</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01794756855084644</v>
+        <v>0.01907107841578791</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0556804494938699</v>
+        <v>0.05817863736419505</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -5483,19 +5483,19 @@
         <v>33717</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22653</v>
+        <v>23044</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47149</v>
+        <v>49442</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03878581203203249</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02605876780487472</v>
+        <v>0.0265085358068426</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05423623023618396</v>
+        <v>0.05687454796127105</v>
       </c>
     </row>
     <row r="27">
@@ -5512,19 +5512,19 @@
         <v>24435</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16370</v>
+        <v>15984</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36045</v>
+        <v>36447</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06421988824654122</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04302480502366222</v>
+        <v>0.04200936931305807</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09473399922241318</v>
+        <v>0.09579159643619241</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -5533,19 +5533,19 @@
         <v>21058</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13141</v>
+        <v>13861</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31254</v>
+        <v>31349</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04307778311012275</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02688254850620484</v>
+        <v>0.02835515630963839</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06393515558660315</v>
+        <v>0.06412939705917119</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>43</v>
@@ -5554,19 +5554,19 @@
         <v>45493</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33171</v>
+        <v>33982</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>60721</v>
+        <v>61649</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05233116292599453</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03815706881737192</v>
+        <v>0.03909060688919378</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06984815427207572</v>
+        <v>0.07091626328594278</v>
       </c>
     </row>
     <row r="28">
@@ -5583,19 +5583,19 @@
         <v>3211</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9297</v>
+        <v>9229</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008439634223725737</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00249575607158823</v>
+        <v>0.002515224004667907</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02443465362465335</v>
+        <v>0.02425643297314553</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -5604,19 +5604,19 @@
         <v>13373</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8125</v>
+        <v>7614</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23008</v>
+        <v>22525</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02735596497900384</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01662048616095606</v>
+        <v>0.01557578468873868</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04706607082423912</v>
+        <v>0.04607752687761234</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -5625,19 +5625,19 @@
         <v>16584</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10100</v>
+        <v>9906</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25857</v>
+        <v>26578</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01907675190765605</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0116176906617575</v>
+        <v>0.011394654809454</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02974438897585625</v>
+        <v>0.03057281481945406</v>
       </c>
     </row>
     <row r="29">
@@ -5654,19 +5654,19 @@
         <v>317754</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>301149</v>
+        <v>302612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>331200</v>
+        <v>332185</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8351359045948419</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7914930846308109</v>
+        <v>0.795339145386074</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8704745785336387</v>
+        <v>0.8730645190970167</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>361</v>
@@ -5675,19 +5675,19 @@
         <v>402838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>385661</v>
+        <v>380933</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>420296</v>
+        <v>418435</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8240661001806665</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7889282241880747</v>
+        <v>0.7792555113928633</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8597785993249327</v>
+        <v>0.8559723452459038</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>640</v>
@@ -5696,19 +5696,19 @@
         <v>720591</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>696729</v>
+        <v>695263</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>742908</v>
+        <v>741322</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.828911081513927</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.801461169686654</v>
+        <v>0.799775196245113</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8545824947847722</v>
+        <v>0.852757864883556</v>
       </c>
     </row>
     <row r="30">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4379</v>
+        <v>4660</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001933439416145335</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.009105081788264434</v>
+        <v>0.009688736189000052</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5854</v>
+        <v>5884</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002982292811135718</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.008999892817384263</v>
+        <v>0.00904638594028687</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -5842,19 +5842,19 @@
         <v>2870</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7569</v>
+        <v>7606</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002536444088227913</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0008189938151767703</v>
+        <v>0.0008130786973941468</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.006689476990311185</v>
+        <v>0.006722556738600375</v>
       </c>
     </row>
     <row r="32">
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6352</v>
+        <v>5616</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003832885825174615</v>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01320806553697981</v>
+        <v>0.01167633030351085</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6470</v>
+        <v>6408</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.001629290860255262</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005718687827165489</v>
+        <v>0.00566390121174617</v>
       </c>
     </row>
     <row r="33">
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>3990</v>
+        <v>5412</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001864994131273777</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.008295122277623378</v>
+        <v>0.01125289762938752</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3625</v>
+        <v>5682</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0007927754780891851</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.003203869326420907</v>
+        <v>0.005022249175394096</v>
       </c>
     </row>
     <row r="34">
@@ -5997,19 +5997,19 @@
         <v>9625</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4731</v>
+        <v>4872</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16457</v>
+        <v>17298</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02001159652400051</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009836222731802539</v>
+        <v>0.01012980415015921</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03421782881391639</v>
+        <v>0.0359670810005286</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -6018,19 +6018,19 @@
         <v>12578</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6880</v>
+        <v>6731</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21733</v>
+        <v>22189</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0193360620107948</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01057655138186003</v>
+        <v>0.01034700242888602</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03341115035136618</v>
+        <v>0.03411136989421423</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -6039,19 +6039,19 @@
         <v>22202</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14100</v>
+        <v>13616</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33067</v>
+        <v>32153</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01962321958823266</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01246244511361755</v>
+        <v>0.01203436873001054</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02922562139026628</v>
+        <v>0.02841807033428975</v>
       </c>
     </row>
     <row r="35">
@@ -6068,19 +6068,19 @@
         <v>9990</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4412</v>
+        <v>4626</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18740</v>
+        <v>17978</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02077048268884555</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009173352374697045</v>
+        <v>0.009617966041468872</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03896438331055115</v>
+        <v>0.03737977698943438</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -6089,19 +6089,19 @@
         <v>3595</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10061</v>
+        <v>10998</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005526633417974612</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0014961966643546</v>
+        <v>0.001498556675256205</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01546669593531259</v>
+        <v>0.01690722053906635</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -6110,19 +6110,19 @@
         <v>13585</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7316</v>
+        <v>7572</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23560</v>
+        <v>23148</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.012006519703397</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006466330221986366</v>
+        <v>0.006692177553786679</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02082322819131386</v>
+        <v>0.02045895975406209</v>
       </c>
     </row>
     <row r="36">
@@ -6139,19 +6139,19 @@
         <v>14230</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8117</v>
+        <v>8309</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22765</v>
+        <v>22751</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02958654670462741</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01687634404755538</v>
+        <v>0.01727564484417706</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04733362455668791</v>
+        <v>0.04730422496910736</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -6160,19 +6160,19 @@
         <v>17217</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9826</v>
+        <v>10385</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>27580</v>
+        <v>28508</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02646832735488441</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01510599293111018</v>
+        <v>0.01596577719960228</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04239920116384949</v>
+        <v>0.0438262635851803</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>31</v>
@@ -6181,19 +6181,19 @@
         <v>31447</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22494</v>
+        <v>22227</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>45014</v>
+        <v>44953</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0277938263440373</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01988131929341808</v>
+        <v>0.01964465599126086</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03978476407746374</v>
+        <v>0.039730948277273</v>
       </c>
     </row>
     <row r="37">
@@ -6210,19 +6210,19 @@
         <v>4608</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1845</v>
+        <v>1782</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10182</v>
+        <v>9304</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009580211170853189</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003835933141073035</v>
+        <v>0.003704724833865592</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02117143310920321</v>
+        <v>0.01934472390054703</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -6231,19 +6231,19 @@
         <v>16837</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9735</v>
+        <v>9897</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25167</v>
+        <v>26046</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02588384780024254</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01496604393010742</v>
+        <v>0.0152156867708316</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03868996581892033</v>
+        <v>0.04004083430938313</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -6252,19 +6252,19 @@
         <v>21444</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14257</v>
+        <v>14317</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32271</v>
+        <v>31987</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01895346496057712</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01260088939633573</v>
+        <v>0.01265391770415515</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02852194440662609</v>
+        <v>0.02827173989466952</v>
       </c>
     </row>
     <row r="38">
@@ -6281,19 +6281,19 @@
         <v>438828</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>425579</v>
+        <v>425315</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>450093</v>
+        <v>449659</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9124198435390796</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8848724994151526</v>
+        <v>0.8843222732806265</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9358415315420181</v>
+        <v>0.9349391404396075</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>564</v>
@@ -6302,19 +6302,19 @@
         <v>598312</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>582563</v>
+        <v>582095</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>611067</v>
+        <v>611229</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9198028366049679</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8955901471432879</v>
+        <v>0.8948710105051334</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9394108226431903</v>
+        <v>0.9396596567640947</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>975</v>
@@ -6323,19 +6323,19 @@
         <v>1037141</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1016115</v>
+        <v>1017880</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1053992</v>
+        <v>1053701</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9166644589771835</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8980810060311915</v>
+        <v>0.8996412005652017</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9315581392465992</v>
+        <v>0.9313014315436379</v>
       </c>
     </row>
     <row r="39">
@@ -6427,19 +6427,19 @@
         <v>3949</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9149</v>
+        <v>9553</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002286777042334489</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0005981266448374097</v>
+        <v>0.0006044607790318576</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005297909037230955</v>
+        <v>0.005532207875990365</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -6448,19 +6448,19 @@
         <v>6781</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2852</v>
+        <v>2789</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14999</v>
+        <v>14462</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003129806000571613</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001316378224032608</v>
+        <v>0.001287374182015458</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006923006935085171</v>
+        <v>0.006675545513284872</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -6469,19 +6469,19 @@
         <v>10730</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5597</v>
+        <v>5792</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19546</v>
+        <v>20328</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002755885365632519</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001437686197729199</v>
+        <v>0.001487638497195458</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005020327894265468</v>
+        <v>0.005221332877688537</v>
       </c>
     </row>
     <row r="41">
@@ -6498,19 +6498,19 @@
         <v>7015</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3002</v>
+        <v>3052</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13978</v>
+        <v>14399</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004062519792027475</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001738498197125557</v>
+        <v>0.001767378013740427</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008094386739474145</v>
+        <v>0.00833829634103582</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -6519,19 +6519,19 @@
         <v>3244</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9233</v>
+        <v>9952</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001497192234401416</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0</v>
+        <v>0.0004599887365072476</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004261709351155085</v>
+        <v>0.004593451371481632</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -6540,19 +6540,19 @@
         <v>10259</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5114</v>
+        <v>4988</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18390</v>
+        <v>17599</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002635028485222686</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001313450583006813</v>
+        <v>0.001281126492405052</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004723459295652631</v>
+        <v>0.004520221230782986</v>
       </c>
     </row>
     <row r="42">
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5688</v>
+        <v>4485</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0005194192579502273</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.003293554380885395</v>
+        <v>0.002597197831398741</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4374</v>
+        <v>4289</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.000230385417766055</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.001123518731801428</v>
+        <v>0.001101586451194738</v>
       </c>
     </row>
     <row r="43">
@@ -6632,19 +6632,19 @@
         <v>66656</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>51257</v>
+        <v>52756</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>84131</v>
+        <v>84153</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03859949610869855</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02968196233930457</v>
+        <v>0.03055028351286171</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0487187890138647</v>
+        <v>0.04873165330746531</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>94</v>
@@ -6653,19 +6653,19 @@
         <v>103976</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>84313</v>
+        <v>85046</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>126786</v>
+        <v>127926</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04799333437842195</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03891699856480687</v>
+        <v>0.03925531714916725</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05852204283505495</v>
+        <v>0.05904790323930029</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>159</v>
@@ -6674,19 +6674,19 @@
         <v>170632</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>146536</v>
+        <v>148258</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>197787</v>
+        <v>199772</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04382675156295698</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03763747985062827</v>
+        <v>0.0380798745263734</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05080143368686373</v>
+        <v>0.05131131726747053</v>
       </c>
     </row>
     <row r="44">
@@ -6703,19 +6703,19 @@
         <v>48779</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>35383</v>
+        <v>35577</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>66276</v>
+        <v>65619</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02824734476149218</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02048965240504547</v>
+        <v>0.02060180784712774</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03837954844822385</v>
+        <v>0.03799879445742893</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>26</v>
@@ -6724,19 +6724,19 @@
         <v>30025</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>19239</v>
+        <v>20667</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>42471</v>
+        <v>44318</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01385911603067606</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008880129971135537</v>
+        <v>0.00953930094118912</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01960380435283433</v>
+        <v>0.02045647677741532</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>67</v>
@@ -6745,19 +6745,19 @@
         <v>78805</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>60126</v>
+        <v>61112</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>97854</v>
+        <v>98714</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02024093194590396</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01544323179255569</v>
+        <v>0.01569661485844582</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02513372691696567</v>
+        <v>0.0253546445373713</v>
       </c>
     </row>
     <row r="45">
@@ -6774,19 +6774,19 @@
         <v>60155</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>45953</v>
+        <v>47309</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>77753</v>
+        <v>78288</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03483455804131354</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02661045996727156</v>
+        <v>0.02739589284239452</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04502559596358375</v>
+        <v>0.04533531091708425</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>71</v>
@@ -6795,19 +6795,19 @@
         <v>75281</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>58756</v>
+        <v>59137</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>93551</v>
+        <v>95869</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0347480857256515</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02712071586058363</v>
+        <v>0.02729640262038246</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04318121234635901</v>
+        <v>0.04425122305524719</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>130</v>
@@ -6816,19 +6816,19 @@
         <v>135435</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>112959</v>
+        <v>114014</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>160282</v>
+        <v>160751</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03478644002280948</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02901345353864835</v>
+        <v>0.02928446495151373</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04116818970960481</v>
+        <v>0.0412886682044199</v>
       </c>
     </row>
     <row r="46">
@@ -6845,19 +6845,19 @@
         <v>20557</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>13529</v>
+        <v>13085</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>30519</v>
+        <v>30436</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01190396647219092</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007834639260440491</v>
+        <v>0.007577370947195376</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01767296358264147</v>
+        <v>0.01762496894708715</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>57</v>
@@ -6866,19 +6866,19 @@
         <v>60507</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>45891</v>
+        <v>46600</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>78602</v>
+        <v>78292</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02792875963904881</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02118242871821794</v>
+        <v>0.02150940295578958</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03628115892707283</v>
+        <v>0.03613813485255836</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>78</v>
@@ -6887,19 +6887,19 @@
         <v>81063</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>63259</v>
+        <v>63732</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>98597</v>
+        <v>98828</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02082105500189239</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0162480698596939</v>
+        <v>0.01636947527961112</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02532451956882677</v>
+        <v>0.0253838073201384</v>
       </c>
     </row>
     <row r="47">
@@ -6916,19 +6916,19 @@
         <v>1518861</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1490250</v>
+        <v>1490321</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1546679</v>
+        <v>1545278</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8795459185239927</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8629777540998388</v>
+        <v>0.8630190439394986</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8956550993690404</v>
+        <v>0.8948435967320051</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1741</v>
@@ -6937,19 +6937,19 @@
         <v>1886659</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1855786</v>
+        <v>1852424</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1918536</v>
+        <v>1917203</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.8708437059912286</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8565933919774886</v>
+        <v>0.8550417792897658</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.885557824239104</v>
+        <v>0.8849422114831174</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3133</v>
@@ -6958,19 +6958,19 @@
         <v>3405519</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3365396</v>
+        <v>3361400</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3447304</v>
+        <v>3445085</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.8747035221978159</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8643979714960284</v>
+        <v>0.8633716383597367</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8854358976991316</v>
+        <v>0.8848660092934869</v>
       </c>
     </row>
     <row r="48">
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7404</v>
+        <v>7506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005145877586242207</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01808346029566861</v>
+        <v>0.01833304109777849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -7464,19 +7464,19 @@
         <v>6678</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2655</v>
+        <v>3059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13072</v>
+        <v>14229</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01489390367136974</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005920760691102673</v>
+        <v>0.006823341840617818</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0291547623006267</v>
+        <v>0.03173493894833874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -7485,19 +7485,19 @@
         <v>8785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4362</v>
+        <v>4076</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16441</v>
+        <v>16366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01024123390676008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005084898748006554</v>
+        <v>0.004751942139424115</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01916676283245951</v>
+        <v>0.01907990777851331</v>
       </c>
     </row>
     <row r="8">
@@ -7514,19 +7514,19 @@
         <v>7150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2593</v>
+        <v>2721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14949</v>
+        <v>16232</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0174642299956161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006334177012882624</v>
+        <v>0.00664518956955021</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03651390174905202</v>
+        <v>0.03964700279425497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -7535,19 +7535,19 @@
         <v>5313</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11491</v>
+        <v>11691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01184889072702096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004221955157492113</v>
+        <v>0.004199589675031671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02562888402570756</v>
+        <v>0.0260757592635953</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -7556,19 +7556,19 @@
         <v>12463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6439</v>
+        <v>6772</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21336</v>
+        <v>21989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01452905581940603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007506187505916403</v>
+        <v>0.007894825715890152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02487385578316282</v>
+        <v>0.02563449441273367</v>
       </c>
     </row>
     <row r="9">
@@ -7585,19 +7585,19 @@
         <v>8598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3926</v>
+        <v>3859</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15266</v>
+        <v>15997</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02099980020277717</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009590452546360023</v>
+        <v>0.009426774659644631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03728765694272809</v>
+        <v>0.03907393142695162</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -7606,19 +7606,19 @@
         <v>9872</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4984</v>
+        <v>4569</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17547</v>
+        <v>17229</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0220184254061406</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01111516337598782</v>
+        <v>0.01018978337418426</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03913619954413795</v>
+        <v>0.03842584487870305</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -7627,19 +7627,19 @@
         <v>18470</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11613</v>
+        <v>11641</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28515</v>
+        <v>28695</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02153224218876194</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0135385416377377</v>
+        <v>0.01357082027201153</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03324268939266556</v>
+        <v>0.03345343879672927</v>
       </c>
     </row>
     <row r="10">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4470</v>
+        <v>5025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002179448759868605</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01091701294373521</v>
+        <v>0.01227263273806013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -7677,19 +7677,19 @@
         <v>11705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7141</v>
+        <v>6287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20030</v>
+        <v>19287</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02610521884748393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01592666823586826</v>
+        <v>0.01402103364221354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04467407988792572</v>
+        <v>0.04301604587878734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -7698,19 +7698,19 @@
         <v>12597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7762</v>
+        <v>7218</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21621</v>
+        <v>20067</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01468560362389646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009048832002703294</v>
+        <v>0.008415219935904375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02520563741466383</v>
+        <v>0.02339409989421925</v>
       </c>
     </row>
     <row r="11">
@@ -7727,19 +7727,19 @@
         <v>390663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>380224</v>
+        <v>379974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>398134</v>
+        <v>398268</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9542106434554959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9287116668542068</v>
+        <v>0.9281009899508166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9724569864454031</v>
+        <v>0.9727850277188157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -7748,19 +7748,19 @@
         <v>414797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>403601</v>
+        <v>402629</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>423971</v>
+        <v>424028</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9251335613479847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9001642680286025</v>
+        <v>0.8979962379033043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9455951751525545</v>
+        <v>0.94572203225358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>779</v>
@@ -7769,19 +7769,19 @@
         <v>805460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>790199</v>
+        <v>790944</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>818762</v>
+        <v>817894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9390118644611755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9212205359366231</v>
+        <v>0.9220885289426405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9545195196231021</v>
+        <v>0.9535075737285974</v>
       </c>
     </row>
     <row r="12">
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5918</v>
+        <v>6084</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003211112089111259</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009708234465691509</v>
+        <v>0.009979532398318414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6965</v>
+        <v>6553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001738139244610224</v>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006183911803761543</v>
+        <v>0.005818753217932693</v>
       </c>
     </row>
     <row r="15">
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4934</v>
+        <v>4928</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001885868943915856</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009550024096710711</v>
+        <v>0.009538844268188693</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4892</v>
+        <v>4845</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0008650690681572328</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004343729955541185</v>
+        <v>0.004301582681325034</v>
       </c>
     </row>
     <row r="16">
@@ -8046,19 +8046,19 @@
         <v>10044</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4479</v>
+        <v>4963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19493</v>
+        <v>19455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01944259134279189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008669200044487605</v>
+        <v>0.009606636162965089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03773260035196278</v>
+        <v>0.0376582588679902</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -8067,19 +8067,19 @@
         <v>10888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5562</v>
+        <v>5684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19622</v>
+        <v>20467</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01786093943444316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009124547148829933</v>
+        <v>0.009324613432744875</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03218681183637592</v>
+        <v>0.03357323012382156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -8088,19 +8088,19 @@
         <v>20933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13140</v>
+        <v>12849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32419</v>
+        <v>32357</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01858646076344034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0116675914942758</v>
+        <v>0.0114090856051946</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02878498930260673</v>
+        <v>0.0287306408977195</v>
       </c>
     </row>
     <row r="17">
@@ -8117,19 +8117,19 @@
         <v>8968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3493</v>
+        <v>3673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18041</v>
+        <v>17521</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01735854965521115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006760605771960108</v>
+        <v>0.007110522119535729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03492094000409438</v>
+        <v>0.03391411345408148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8138,19 +8138,19 @@
         <v>3880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9765</v>
+        <v>8700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006365412117013504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001635536610525161</v>
+        <v>0.001594681134934882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01601836679033975</v>
+        <v>0.01427116916612023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -8159,19 +8159,19 @@
         <v>12848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6880</v>
+        <v>6878</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22726</v>
+        <v>22521</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.011408086623624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006108635086860706</v>
+        <v>0.006106720309740975</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02017871220121006</v>
+        <v>0.01999718477348293</v>
       </c>
     </row>
     <row r="18">
@@ -8188,19 +8188,19 @@
         <v>19760</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11740</v>
+        <v>11963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31830</v>
+        <v>31797</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03824922428311021</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0227244137798181</v>
+        <v>0.02315685308848403</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06161352881753696</v>
+        <v>0.06154959977333435</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -8209,19 +8209,19 @@
         <v>20473</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13268</v>
+        <v>13009</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30837</v>
+        <v>31147</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0335840218134975</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02176391421138177</v>
+        <v>0.02134033287326493</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05058442913684454</v>
+        <v>0.05109206434435077</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>37</v>
@@ -8230,19 +8230,19 @@
         <v>40234</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29026</v>
+        <v>29126</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>55099</v>
+        <v>55368</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03572400209482757</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02577227935239851</v>
+        <v>0.02586151233930111</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04892368929536029</v>
+        <v>0.04916182842489765</v>
       </c>
     </row>
     <row r="19">
@@ -8259,19 +8259,19 @@
         <v>6748</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2365</v>
+        <v>3048</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14022</v>
+        <v>13785</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01306117319077555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004578360764591331</v>
+        <v>0.005899805325984817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02714225844454433</v>
+        <v>0.0266827548060774</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -8280,19 +8280,19 @@
         <v>20059</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12414</v>
+        <v>12511</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30897</v>
+        <v>31301</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0329040883584782</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02036395779050237</v>
+        <v>0.02052253825980576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05068277283418774</v>
+        <v>0.05134599324215872</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -8301,19 +8301,19 @@
         <v>26807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18612</v>
+        <v>18118</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39399</v>
+        <v>39388</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0238019223839939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01652614387756815</v>
+        <v>0.01608686743702736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03498342495016024</v>
+        <v>0.03497351442493018</v>
       </c>
     </row>
     <row r="20">
@@ -8330,19 +8330,19 @@
         <v>470121</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>455457</v>
+        <v>455324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>483251</v>
+        <v>482891</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9100025925841954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8816170638302349</v>
+        <v>0.8813605663067247</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9354188006663436</v>
+        <v>0.9347208801466795</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>490</v>
@@ -8351,19 +8351,19 @@
         <v>552358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>536297</v>
+        <v>536898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>565400</v>
+        <v>566131</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9060744261874564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8797274245100712</v>
+        <v>0.8807137404288675</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9274678194942314</v>
+        <v>0.928667227531121</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>934</v>
@@ -8372,19 +8372,19 @@
         <v>1022480</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1000257</v>
+        <v>1001606</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1040847</v>
+        <v>1040335</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9078763198213468</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8881438356398895</v>
+        <v>0.8893420938150122</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9241841208295313</v>
+        <v>0.9237299638243519</v>
       </c>
     </row>
     <row r="21">
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8657</v>
+        <v>8939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005911624397683535</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0208209291756566</v>
+        <v>0.02149961794150463</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -8544,19 +8544,19 @@
         <v>3146</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8478</v>
+        <v>8697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007060870533913449</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002199565651233681</v>
+        <v>0.00220811107121756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01902762634485584</v>
+        <v>0.01951849513355773</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -8565,19 +8565,19 @@
         <v>5604</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2026</v>
+        <v>2074</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11895</v>
+        <v>12407</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006506113286608618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002351569817231097</v>
+        <v>0.00240763969094617</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01381010220883149</v>
+        <v>0.01440428365111707</v>
       </c>
     </row>
     <row r="24">
@@ -8641,19 +8641,19 @@
         <v>12222</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5523</v>
+        <v>6673</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20626</v>
+        <v>21204</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02939472034991051</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01328391175278367</v>
+        <v>0.0160492058799391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0496067613783354</v>
+        <v>0.05099807098099516</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -8662,19 +8662,19 @@
         <v>18397</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11336</v>
+        <v>11399</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29609</v>
+        <v>28858</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04128822184309714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02544095244473358</v>
+        <v>0.02558225666850505</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0664529785931498</v>
+        <v>0.06476725502173167</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -8683,19 +8683,19 @@
         <v>30619</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19466</v>
+        <v>21621</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43396</v>
+        <v>44286</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03554706166759219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0225992570636392</v>
+        <v>0.02510072637445626</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05038057632351935</v>
+        <v>0.05141469073382657</v>
       </c>
     </row>
     <row r="26">
@@ -8712,19 +8712,19 @@
         <v>6935</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3016</v>
+        <v>2865</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15464</v>
+        <v>14764</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01667802172041467</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007254097119693536</v>
+        <v>0.006890876678582888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03719089902174159</v>
+        <v>0.03550821629879282</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -8733,19 +8733,19 @@
         <v>8088</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3836</v>
+        <v>3875</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15116</v>
+        <v>15156</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01815192076014031</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008608474559328647</v>
+        <v>0.008697236243391431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03392611875276759</v>
+        <v>0.03401595767464392</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -8754,19 +8754,19 @@
         <v>15022</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8542</v>
+        <v>7802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25115</v>
+        <v>24023</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01744044899764586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009917427362970341</v>
+        <v>0.009058012181512734</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02915705540612433</v>
+        <v>0.02788999597772787</v>
       </c>
     </row>
     <row r="27">
@@ -8783,19 +8783,19 @@
         <v>13455</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7500</v>
+        <v>7032</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23008</v>
+        <v>22726</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0323604563162176</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01803768323118354</v>
+        <v>0.01691272439132948</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05533617883092489</v>
+        <v>0.0546586616031662</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -8804,19 +8804,19 @@
         <v>11527</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6011</v>
+        <v>5803</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>20307</v>
+        <v>19942</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.025871457151403</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01348961544932935</v>
+        <v>0.01302407621177336</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04557515064678715</v>
+        <v>0.04475754121118015</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -8825,19 +8825,19 @@
         <v>24983</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>16336</v>
+        <v>16181</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>37480</v>
+        <v>36370</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02900378816470974</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0189655178533912</v>
+        <v>0.01878535246601448</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04351228959264333</v>
+        <v>0.04222381048932937</v>
       </c>
     </row>
     <row r="28">
@@ -8854,19 +8854,19 @@
         <v>4150</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11347</v>
+        <v>11927</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009980503521490896</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002550120405141034</v>
+        <v>0.00256305294752498</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02729105499645195</v>
+        <v>0.02868595427112154</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -8875,19 +8875,19 @@
         <v>10102</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4998</v>
+        <v>4662</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17548</v>
+        <v>17054</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02267213750974963</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01121624151272708</v>
+        <v>0.01046311148143295</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03938411115526964</v>
+        <v>0.03827453599365528</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -8896,19 +8896,19 @@
         <v>14252</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7832</v>
+        <v>7972</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>23831</v>
+        <v>24635</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01654570757175217</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009092629704816729</v>
+        <v>0.009254872671594043</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02766635655270863</v>
+        <v>0.02860032246441224</v>
       </c>
     </row>
     <row r="29">
@@ -8925,19 +8925,19 @@
         <v>376570</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>362144</v>
+        <v>362802</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>387956</v>
+        <v>387259</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9056746736942828</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8709798378822856</v>
+        <v>0.8725633093882367</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9330589893782092</v>
+        <v>0.9313839642181723</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>348</v>
@@ -8946,19 +8946,19 @@
         <v>394307</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>378458</v>
+        <v>380003</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>406422</v>
+        <v>407507</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8849553922016965</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8493853412022877</v>
+        <v>0.8528523231781753</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9121451814443958</v>
+        <v>0.914580530074681</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>696</v>
@@ -8967,19 +8967,19 @@
         <v>770876</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>749505</v>
+        <v>751960</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>787371</v>
+        <v>788267</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8949568803116914</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8701456449179777</v>
+        <v>0.8729950548006908</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9141063581805181</v>
+        <v>0.9151465428637967</v>
       </c>
     </row>
     <row r="30">
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6324</v>
+        <v>7223</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003848840354431708</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.013381672384132</v>
+        <v>0.01528350789699542</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6383</v>
+        <v>5971</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.001632158825482548</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005727090505573912</v>
+        <v>0.005357997514119433</v>
       </c>
     </row>
     <row r="33">
@@ -9228,19 +9228,19 @@
         <v>6755</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13269</v>
+        <v>14318</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01429370660629418</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006024175572852237</v>
+        <v>0.006030737355237271</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02807653518933398</v>
+        <v>0.03029513473624844</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -9249,19 +9249,19 @@
         <v>11686</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6150</v>
+        <v>5654</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20897</v>
+        <v>20614</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0182071144486107</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009581303974471492</v>
+        <v>0.00880843338351666</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03255776433883061</v>
+        <v>0.03211577881749594</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>18</v>
@@ -9270,19 +9270,19 @@
         <v>18442</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10689</v>
+        <v>10973</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29023</v>
+        <v>28805</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01654757480566476</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009591450782369122</v>
+        <v>0.009846381166048447</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02604215288442044</v>
+        <v>0.02584608637127505</v>
       </c>
     </row>
     <row r="35">
@@ -9299,19 +9299,19 @@
         <v>6021</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2695</v>
+        <v>2633</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12663</v>
+        <v>13159</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01273906945612274</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005703000617878794</v>
+        <v>0.005571853696843101</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02679433057656059</v>
+        <v>0.02784252382258592</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -9320,19 +9320,19 @@
         <v>8227</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3367</v>
+        <v>3279</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17760</v>
+        <v>16928</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01281741317095342</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00524537004459612</v>
+        <v>0.005108896563066634</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02767030490614749</v>
+        <v>0.02637371032616309</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -9341,19 +9341,19 @@
         <v>14248</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8169</v>
+        <v>8158</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>24137</v>
+        <v>22902</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01278419033659118</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007330247062330575</v>
+        <v>0.007320384130676644</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02165799090045852</v>
+        <v>0.0205501157246076</v>
       </c>
     </row>
     <row r="36">
@@ -9370,19 +9370,19 @@
         <v>12949</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7041</v>
+        <v>6694</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22595</v>
+        <v>22061</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02740015529205395</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01489864847007782</v>
+        <v>0.01416475707657286</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04780906356726389</v>
+        <v>0.04667972789640935</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -9391,19 +9391,19 @@
         <v>9624</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4794</v>
+        <v>4866</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16624</v>
+        <v>17879</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01499374610032111</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.007469609344897595</v>
+        <v>0.007580811015628052</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02589984679787359</v>
+        <v>0.02785433472216574</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -9412,19 +9412,19 @@
         <v>22573</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14404</v>
+        <v>14519</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>34140</v>
+        <v>32915</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02025487111204543</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01292465524353849</v>
+        <v>0.01302783222825113</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03063379272940342</v>
+        <v>0.02953406957381568</v>
       </c>
     </row>
     <row r="37">
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7394</v>
+        <v>8431</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.00446621038175937</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01564539877444142</v>
+        <v>0.01783972720698646</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -9462,19 +9462,19 @@
         <v>5886</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12853</v>
+        <v>12788</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.009169868686301029</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.00313215054870229</v>
+        <v>0.003148170173966371</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02002439280212806</v>
+        <v>0.01992310613917324</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -9483,19 +9483,19 @@
         <v>7997</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3124</v>
+        <v>3735</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>14810</v>
+        <v>15211</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.007175211411163024</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.002803342122835451</v>
+        <v>0.003351232351976733</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01328924139217196</v>
+        <v>0.01364836500269996</v>
       </c>
     </row>
     <row r="38">
@@ -9512,19 +9512,19 @@
         <v>442950</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>430422</v>
+        <v>430179</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>452868</v>
+        <v>452403</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9372520179093381</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9107440283556995</v>
+        <v>0.9102299117668506</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9582368670137548</v>
+        <v>0.9572535334637255</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>531</v>
@@ -9533,19 +9533,19 @@
         <v>606436</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>593848</v>
+        <v>591800</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>617486</v>
+        <v>617273</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9448118575938137</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9251994629877914</v>
+        <v>0.9220100700395114</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9620274831398022</v>
+        <v>0.9616958799941717</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>975</v>
@@ -9554,19 +9554,19 @@
         <v>1049386</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1030245</v>
+        <v>1033069</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1063111</v>
+        <v>1063866</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9416059935090531</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.924430859977598</v>
+        <v>0.9269646787915826</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9539213702587394</v>
+        <v>0.9545986568089623</v>
       </c>
     </row>
     <row r="39">
@@ -9705,19 +9705,19 @@
         <v>4277</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1436</v>
+        <v>1012</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10669</v>
+        <v>11568</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002357210947178513</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0007914731887812276</v>
+        <v>0.0005579017113143816</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.005880079169431869</v>
+        <v>0.006375665581679599</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -9726,19 +9726,19 @@
         <v>5104</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1972</v>
+        <v>1953</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11504</v>
+        <v>11554</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002378869078242218</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0009193083641410268</v>
+        <v>0.0009105461273966765</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.005362310174503303</v>
+        <v>0.005385440380512412</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -9747,19 +9747,19 @@
         <v>9381</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4155</v>
+        <v>4391</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17044</v>
+        <v>16596</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002368945176211738</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001049388464026399</v>
+        <v>0.001108869528330288</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004304147496294384</v>
+        <v>0.00419098434317893</v>
       </c>
     </row>
     <row r="42">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5437</v>
+        <v>5545</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0005369591098986193</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.002996537869165639</v>
+        <v>0.003056102380664959</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4883</v>
+        <v>5460</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0002460382932088445</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.001233008739688571</v>
+        <v>0.001378959287786491</v>
       </c>
     </row>
     <row r="43">
@@ -9839,19 +9839,19 @@
         <v>31128</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>20012</v>
+        <v>21289</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44115</v>
+        <v>44423</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01715611701564646</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01102949653380205</v>
+        <v>0.01173324764036021</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02431371378796908</v>
+        <v>0.02448334688590934</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>46</v>
@@ -9860,19 +9860,19 @@
         <v>47649</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>34741</v>
+        <v>35387</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>61952</v>
+        <v>62670</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02220991223607829</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01619300476961267</v>
+        <v>0.01649419998869861</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02887649610247369</v>
+        <v>0.02921121555527326</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>74</v>
@@ -9881,19 +9881,19 @@
         <v>78778</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>61723</v>
+        <v>61408</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>98812</v>
+        <v>98407</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01989422910985881</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.015587177250995</v>
+        <v>0.01550781577098386</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02495357897016912</v>
+        <v>0.0248513584324909</v>
       </c>
     </row>
     <row r="44">
@@ -9910,19 +9910,19 @@
         <v>29073</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>19223</v>
+        <v>19546</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>43199</v>
+        <v>41765</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01602320223409656</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01059447035815885</v>
+        <v>0.0107724186672774</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0238085567173575</v>
+        <v>0.02301838407248295</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>24</v>
@@ -9931,19 +9931,19 @@
         <v>25508</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>17363</v>
+        <v>16124</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>37375</v>
+        <v>38121</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.011889562195727</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008093309188330147</v>
+        <v>0.007515463873272703</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01742089366894506</v>
+        <v>0.01776855996970519</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>49</v>
@@ -9952,19 +9952,19 @@
         <v>54581</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>40287</v>
+        <v>40979</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>72268</v>
+        <v>70989</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01378362399863078</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01017384753052394</v>
+        <v>0.01034861607877074</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01825040405778376</v>
+        <v>0.01792723658004593</v>
       </c>
     </row>
     <row r="45">
@@ -9981,19 +9981,19 @@
         <v>54762</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>42064</v>
+        <v>40646</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>72074</v>
+        <v>72927</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03018168705260053</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0231831328960878</v>
+        <v>0.02240185050653544</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0397227233209062</v>
+        <v>0.04019284161309998</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>51</v>
@@ -10002,19 +10002,19 @@
         <v>51497</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>38628</v>
+        <v>39812</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>67229</v>
+        <v>68349</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02400337230886024</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01800492030834092</v>
+        <v>0.01855693629543803</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03133602438288879</v>
+        <v>0.03185834231716968</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>101</v>
@@ -10023,19 +10023,19 @@
         <v>106259</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>88669</v>
+        <v>86072</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>128509</v>
+        <v>128062</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02683431788075659</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02239210958463265</v>
+        <v>0.02173621154172507</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.0324531977892052</v>
+        <v>0.03234019005253261</v>
       </c>
     </row>
     <row r="46">
@@ -10052,19 +10052,19 @@
         <v>13900</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7316</v>
+        <v>7812</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23693</v>
+        <v>24870</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007661088391668674</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.004031917446919587</v>
+        <v>0.00430544939688484</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01305833349762466</v>
+        <v>0.01370710566734465</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>49</v>
@@ -10073,19 +10073,19 @@
         <v>47751</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>35574</v>
+        <v>35926</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>63692</v>
+        <v>63157</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02225743437893437</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01658145660254553</v>
+        <v>0.01674534827427211</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02968738372611972</v>
+        <v>0.02943831248377362</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>61</v>
@@ -10094,19 +10094,19 @@
         <v>61652</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>47385</v>
+        <v>47249</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>78110</v>
+        <v>80044</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01556928999775297</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01196650972454428</v>
+        <v>0.01193215598165855</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01972551953404209</v>
+        <v>0.02021403873494412</v>
       </c>
     </row>
     <row r="47">
@@ -10123,19 +10123,19 @@
         <v>1680304</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1655637</v>
+        <v>1656768</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1701868</v>
+        <v>1702234</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9260837352489106</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9124889296114346</v>
+        <v>0.9131121423972707</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9379687212943696</v>
+        <v>0.9381704782114146</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1764</v>
@@ -10144,19 +10144,19 @@
         <v>1967898</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1941657</v>
+        <v>1940007</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1992204</v>
+        <v>1991068</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9172608498021578</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9050297948283819</v>
+        <v>0.9042605084571319</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9285902379709217</v>
+        <v>0.928060713316022</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3384</v>
@@ -10165,19 +10165,19 @@
         <v>3648202</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3613452</v>
+        <v>3613732</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3681706</v>
+        <v>3682399</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9213035555435802</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9125279814953254</v>
+        <v>0.9125986751926685</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.929764675780701</v>
+        <v>0.9299396792260287</v>
       </c>
     </row>
     <row r="48">
@@ -10509,19 +10509,19 @@
         <v>24607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15557</v>
+        <v>14814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36058</v>
+        <v>36610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07508342866058916</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04746885452632878</v>
+        <v>0.04520003519969124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.110021801122329</v>
+        <v>0.1117046191187284</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -10530,19 +10530,19 @@
         <v>33200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24096</v>
+        <v>23431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44501</v>
+        <v>45422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08797047864122685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06384729354189103</v>
+        <v>0.0620840909708489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1179127545672642</v>
+        <v>0.1203536334000357</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -10551,19 +10551,19 @@
         <v>57808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44739</v>
+        <v>44598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76716</v>
+        <v>75791</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08198080552909963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06344706587351413</v>
+        <v>0.06324663333364627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1087964798119922</v>
+        <v>0.1074842105795439</v>
       </c>
     </row>
     <row r="5">
@@ -10674,19 +10674,19 @@
         <v>2786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7491</v>
+        <v>8096</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008501021392274512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002206968372031129</v>
+        <v>0.002197132448548471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02285699686033919</v>
+        <v>0.02470190943683562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -10695,19 +10695,19 @@
         <v>1716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>557</v>
+        <v>407</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4817</v>
+        <v>4331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004547602348321431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001476647188746576</v>
+        <v>0.001078222584695138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01276476384531058</v>
+        <v>0.01147603194805524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -10716,19 +10716,19 @@
         <v>4502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1894</v>
+        <v>1849</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9985</v>
+        <v>10137</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006385081661594475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002686150932869647</v>
+        <v>0.002622135402169478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01416038336589195</v>
+        <v>0.01437549898001356</v>
       </c>
     </row>
     <row r="8">
@@ -10745,19 +10745,19 @@
         <v>7154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2930</v>
+        <v>2942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14092</v>
+        <v>14504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02182993147411063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008941515815389935</v>
+        <v>0.008976835535558645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04299950990391763</v>
+        <v>0.04425565763261638</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -10766,19 +10766,19 @@
         <v>9916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5800</v>
+        <v>5822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15634</v>
+        <v>16906</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02627439806193992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01536881922997279</v>
+        <v>0.01542735427968587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04142621355921099</v>
+        <v>0.04479560042574592</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -10787,19 +10787,19 @@
         <v>17070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11079</v>
+        <v>10789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25885</v>
+        <v>26508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0242086885272624</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0157119991712889</v>
+        <v>0.0152998779526551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03670972529615343</v>
+        <v>0.03759248511313181</v>
       </c>
     </row>
     <row r="9">
@@ -10816,19 +10816,19 @@
         <v>11596</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6152</v>
+        <v>6694</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19092</v>
+        <v>22029</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03538305529456408</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01877217425960549</v>
+        <v>0.02042369407466326</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05825531103104324</v>
+        <v>0.06721621079450069</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -10837,19 +10837,19 @@
         <v>10283</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5716</v>
+        <v>5988</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17166</v>
+        <v>17646</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02724764889569811</v>
+        <v>0.02724764889569812</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01514625845249428</v>
+        <v>0.01586635464907837</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04548355211103072</v>
+        <v>0.04675533111212748</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -10858,19 +10858,19 @@
         <v>21880</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14319</v>
+        <v>14560</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31368</v>
+        <v>32516</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03102884203429291</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02030598845806745</v>
+        <v>0.02064877285364073</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0444853864563293</v>
+        <v>0.04611332934820366</v>
       </c>
     </row>
     <row r="10">
@@ -10887,19 +10887,19 @@
         <v>2721</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7830</v>
+        <v>8035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00830286422674349</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002402895860837593</v>
+        <v>0.002385308566335395</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02389166829442846</v>
+        <v>0.02451580308324266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -10908,19 +10908,19 @@
         <v>3660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1322</v>
+        <v>1194</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9075</v>
+        <v>8939</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009698530769723969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003502001066024992</v>
+        <v>0.003163362868641401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02404617763065179</v>
+        <v>0.02368449589677489</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -10929,19 +10929,19 @@
         <v>6381</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2679</v>
+        <v>2841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12202</v>
+        <v>13260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009049849622483466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003799288529571822</v>
+        <v>0.004028980005590863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01730468485805825</v>
+        <v>0.01880555740995543</v>
       </c>
     </row>
     <row r="11">
@@ -10958,19 +10958,19 @@
         <v>278870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264024</v>
+        <v>263518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>290444</v>
+        <v>291957</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8508996989517181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8056016471265377</v>
+        <v>0.8040567169319331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8862145621810866</v>
+        <v>0.8908339150990701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>623</v>
@@ -10979,19 +10979,19 @@
         <v>318626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>305420</v>
+        <v>304647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331170</v>
+        <v>330330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8442613412830895</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8092700805716997</v>
+        <v>0.8072219730754313</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.877499946491059</v>
+        <v>0.8752743617318105</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1000</v>
@@ -11000,19 +11000,19 @@
         <v>597496</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>575724</v>
+        <v>578568</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>614088</v>
+        <v>615580</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8473467326252671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8164711485953929</v>
+        <v>0.8205050122631564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8708782294889813</v>
+        <v>0.8729930607674689</v>
       </c>
     </row>
     <row r="12">
@@ -11104,19 +11104,19 @@
         <v>39712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26530</v>
+        <v>27362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55361</v>
+        <v>54968</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09435262601920499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06303422876267306</v>
+        <v>0.0650096673313264</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1315334530983508</v>
+        <v>0.1305994958761673</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -11125,19 +11125,19 @@
         <v>31390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22807</v>
+        <v>22759</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41675</v>
+        <v>42296</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06597771346687947</v>
+        <v>0.06597771346687949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04793841183068766</v>
+        <v>0.04783566457961903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08759589722796966</v>
+        <v>0.08890134098593572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -11146,19 +11146,19 @@
         <v>71102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55464</v>
+        <v>53655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90166</v>
+        <v>88861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07929690299970028</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06185709852105045</v>
+        <v>0.05983852516960927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1005581710202889</v>
+        <v>0.09910323231067313</v>
       </c>
     </row>
     <row r="14">
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4109</v>
+        <v>4197</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001917916481083916</v>
@@ -11234,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009762350451501856</v>
+        <v>0.009972438752779906</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4475</v>
+        <v>4046</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.000900270373435347</v>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004990660661961163</v>
+        <v>0.004512120912490165</v>
       </c>
     </row>
     <row r="16">
@@ -11288,16 +11288,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6408</v>
+        <v>7623</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004636355537796483</v>
+        <v>0.004636355537796484</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01522391907669355</v>
+        <v>0.01811090100717152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -11306,19 +11306,19 @@
         <v>5915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2301</v>
+        <v>2361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12603</v>
+        <v>12617</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01243330807699502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004835855437595605</v>
+        <v>0.004962351045937935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0264908668541622</v>
+        <v>0.026519658364327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -11327,19 +11327,19 @@
         <v>7867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3724</v>
+        <v>3578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16016</v>
+        <v>15233</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.008773417021595708</v>
+        <v>0.008773417021595712</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004153169766193985</v>
+        <v>0.003990564041654587</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01786189901756245</v>
+        <v>0.01698880523085361</v>
       </c>
     </row>
     <row r="17">
@@ -11356,19 +11356,19 @@
         <v>15904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8643</v>
+        <v>9536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27586</v>
+        <v>27522</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0377869778678481</v>
+        <v>0.03778697786784811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02053608885039553</v>
+        <v>0.02265736870793738</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06554114002921925</v>
+        <v>0.0653897722297517</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -11377,19 +11377,19 @@
         <v>19463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12904</v>
+        <v>12723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29405</v>
+        <v>28699</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04090948559182593</v>
+        <v>0.04090948559182594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02712175658992721</v>
+        <v>0.02674240949624168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06180564310124373</v>
+        <v>0.06032266288581939</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -11398,19 +11398,19 @@
         <v>35367</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24738</v>
+        <v>25441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48971</v>
+        <v>47952</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03944377985205798</v>
+        <v>0.03944377985205797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02758953536980926</v>
+        <v>0.02837308650393237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05461547703910527</v>
+        <v>0.0534784348187907</v>
       </c>
     </row>
     <row r="18">
@@ -11427,19 +11427,19 @@
         <v>23405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14570</v>
+        <v>14376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35567</v>
+        <v>35507</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05560885438854973</v>
+        <v>0.05560885438854974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03461729878576594</v>
+        <v>0.03415564818076489</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08450404740168788</v>
+        <v>0.08436229732989416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -11448,19 +11448,19 @@
         <v>22820</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15760</v>
+        <v>15540</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31561</v>
+        <v>32919</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0479639346441379</v>
+        <v>0.04796393464413792</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03312488807482968</v>
+        <v>0.03266393646995658</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06633729157672033</v>
+        <v>0.06919132497310798</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -11469,19 +11469,19 @@
         <v>46225</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34211</v>
+        <v>34790</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62736</v>
+        <v>60941</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05155246147576264</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03815413039016541</v>
+        <v>0.03879998278588857</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06996625231060954</v>
+        <v>0.06796491876908735</v>
       </c>
     </row>
     <row r="19">
@@ -11501,16 +11501,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16367</v>
+        <v>16351</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.009350712424384464</v>
+        <v>0.009350712424384466</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03888560252920907</v>
+        <v>0.03884955263601587</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -11519,19 +11519,19 @@
         <v>4700</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1466</v>
+        <v>1582</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12959</v>
+        <v>12431</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.00987950714749378</v>
+        <v>0.009879507147493782</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003081940717168408</v>
+        <v>0.003326030269886211</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02723889536047274</v>
+        <v>0.02612905421350676</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -11540,19 +11540,19 @@
         <v>8636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2832</v>
+        <v>3571</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20332</v>
+        <v>20866</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009631290800463269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00315803772112206</v>
+        <v>0.003983123136918881</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02267593736646048</v>
+        <v>0.0232705129263316</v>
       </c>
     </row>
     <row r="20">
@@ -11569,19 +11569,19 @@
         <v>335174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>313663</v>
+        <v>315098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>351528</v>
+        <v>352031</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7963465572811322</v>
+        <v>0.7963465572811324</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7452378381037813</v>
+        <v>0.7486467520765716</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8352015616409646</v>
+        <v>0.8363961612536787</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>647</v>
@@ -11590,19 +11590,19 @@
         <v>391477</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>377775</v>
+        <v>376489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>406319</v>
+        <v>407079</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8228360510726678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7940369699427257</v>
+        <v>0.7913344725874751</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.854033249851873</v>
+        <v>0.8556299444672711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1052</v>
@@ -11611,19 +11611,19 @@
         <v>726651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>699581</v>
+        <v>702072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>747065</v>
+        <v>750877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8104018774769849</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7802114868221087</v>
+        <v>0.7829899651208716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8331688887652001</v>
+        <v>0.8374202218248266</v>
       </c>
     </row>
     <row r="21">
@@ -11715,19 +11715,19 @@
         <v>23306</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14368</v>
+        <v>14179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35561</v>
+        <v>35072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07993711701926756</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04928179101106581</v>
+        <v>0.04863312929032709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1219710462734572</v>
+        <v>0.120293270929744</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -11736,19 +11736,19 @@
         <v>20422</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13581</v>
+        <v>13274</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30625</v>
+        <v>30710</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07197099921810385</v>
+        <v>0.07197099921810386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0478633001662393</v>
+        <v>0.04677910668200803</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1079266706192911</v>
+        <v>0.1082263669834595</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -11757,19 +11757,19 @@
         <v>43728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32576</v>
+        <v>32509</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60697</v>
+        <v>60603</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07600801421631663</v>
+        <v>0.0760080142163166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05662440222863805</v>
+        <v>0.05650796080462911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1055038188414601</v>
+        <v>0.1053403516840265</v>
       </c>
     </row>
     <row r="23">
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3836</v>
+        <v>5597</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003155608688126616</v>
@@ -11845,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01315830850043642</v>
+        <v>0.01919612721554399</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -11870,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4645</v>
+        <v>5477</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001599177908290117</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008074653768629059</v>
+        <v>0.009520182233117446</v>
       </c>
     </row>
     <row r="25">
@@ -11896,19 +11896,19 @@
         <v>6840</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2921</v>
+        <v>2955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14513</v>
+        <v>14171</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0234610460811</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01001957785527974</v>
+        <v>0.01013653396181255</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04977862224712696</v>
+        <v>0.04860620641643745</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -11917,19 +11917,19 @@
         <v>5765</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2181</v>
+        <v>2126</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12905</v>
+        <v>12474</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02031638436985716</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00768500496862682</v>
+        <v>0.007491169184904689</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04547772059716198</v>
+        <v>0.04396038055458414</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -11938,19 +11938,19 @@
         <v>12605</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6623</v>
+        <v>6937</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20889</v>
+        <v>21869</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0219100146436573</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01151186719783078</v>
+        <v>0.01205873245393504</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03630910949997219</v>
+        <v>0.03801357542050798</v>
       </c>
     </row>
     <row r="26">
@@ -11967,19 +11967,19 @@
         <v>25191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16339</v>
+        <v>15332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38546</v>
+        <v>38501</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08640320614793577</v>
+        <v>0.08640320614793578</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05604134400939063</v>
+        <v>0.05258855663119902</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1322112364370051</v>
+        <v>0.1320565853407059</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -11988,19 +11988,19 @@
         <v>11119</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6500</v>
+        <v>6301</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18577</v>
+        <v>18219</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03918399638288819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02290800191089877</v>
+        <v>0.02220704763626222</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06546695119942256</v>
+        <v>0.06420587836300656</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -12009,19 +12009,19 @@
         <v>36310</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24830</v>
+        <v>25098</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52757</v>
+        <v>52029</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06311342634906376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.043159099246097</v>
+        <v>0.04362558684115649</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09170274628883168</v>
+        <v>0.09043632221142525</v>
       </c>
     </row>
     <row r="27">
@@ -12038,19 +12038,19 @@
         <v>3497</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9000</v>
+        <v>9346</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01199368419395279</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003407766161106606</v>
+        <v>0.003456774088493439</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03086930332759427</v>
+        <v>0.03205636895994243</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -12059,19 +12059,19 @@
         <v>9032</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4475</v>
+        <v>3988</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15818</v>
+        <v>16311</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.03183124274010488</v>
+        <v>0.03183124274010487</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01577000075760107</v>
+        <v>0.01405499895651498</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05574577542753289</v>
+        <v>0.0574818799908345</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -12080,19 +12080,19 @@
         <v>12529</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6685</v>
+        <v>6855</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>21455</v>
+        <v>20500</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02177809974402204</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01161914689275973</v>
+        <v>0.0119152602259915</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03729275459000592</v>
+        <v>0.03563241207485222</v>
       </c>
     </row>
     <row r="28">
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7922</v>
+        <v>7971</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005435189126604168</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0271735696271731</v>
+        <v>0.02734144105844766</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -12130,19 +12130,19 @@
         <v>3686</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10779</v>
+        <v>10953</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01298828879922589</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003151002129413718</v>
+        <v>0.003133607304226126</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03798621134465027</v>
+        <v>0.03860130529672499</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -12151,19 +12151,19 @@
         <v>5270</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1539</v>
+        <v>1594</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13386</v>
+        <v>13100</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.009160580319078198</v>
+        <v>0.009160580319078196</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002675227226280647</v>
+        <v>0.002770951517308842</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02326816831049083</v>
+        <v>0.02277013518801569</v>
       </c>
     </row>
     <row r="29">
@@ -12180,19 +12180,19 @@
         <v>230212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>212904</v>
+        <v>213621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>244345</v>
+        <v>245727</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7896141487430132</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7302472036637172</v>
+        <v>0.7327092995362874</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8380884738237375</v>
+        <v>0.8428314125508864</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>351</v>
@@ -12201,19 +12201,19 @@
         <v>233732</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>219838</v>
+        <v>220278</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>244938</v>
+        <v>244948</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8237090884898202</v>
+        <v>0.8237090884898201</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7747435778217246</v>
+        <v>0.7762927018709622</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8631989880816103</v>
+        <v>0.8632362099524897</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>587</v>
@@ -12222,19 +12222,19 @@
         <v>463944</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>443566</v>
+        <v>441606</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>482090</v>
+        <v>481632</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8064306868195721</v>
+        <v>0.8064306868195719</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7710089680867224</v>
+        <v>0.7676023100780608</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8379708141436893</v>
+        <v>0.8371760172027438</v>
       </c>
     </row>
     <row r="30">
@@ -12326,19 +12326,19 @@
         <v>20443</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12524</v>
+        <v>13218</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30751</v>
+        <v>31278</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.05340288303239661</v>
+        <v>0.0534028830323966</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0327166856640167</v>
+        <v>0.03452930297574034</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08033153724110262</v>
+        <v>0.08170594159667158</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -12347,19 +12347,19 @@
         <v>31695</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23418</v>
+        <v>22950</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42843</v>
+        <v>42027</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06818861740874203</v>
+        <v>0.06818861740874202</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05038116812753073</v>
+        <v>0.04937554004140769</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09217303674528031</v>
+        <v>0.09041837831123539</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>60</v>
@@ -12368,19 +12368,19 @@
         <v>52138</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39587</v>
+        <v>39989</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>65803</v>
+        <v>66477</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06151096895927556</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04670351710163263</v>
+        <v>0.0471777397646139</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07763266861565944</v>
+        <v>0.07842815314903495</v>
       </c>
     </row>
     <row r="32">
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>3923</v>
+        <v>3341</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.001413282610529873</v>
@@ -12469,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.008440115557940388</v>
+        <v>0.007188806534060655</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3978</v>
+        <v>3319</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0007750049171363731</v>
@@ -12490,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.004693449862805191</v>
+        <v>0.003915196792951604</v>
       </c>
     </row>
     <row r="34">
@@ -12507,19 +12507,19 @@
         <v>5760</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1535</v>
+        <v>1619</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13678</v>
+        <v>14041</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01504789332960574</v>
+        <v>0.01504789332960575</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004009922850558309</v>
+        <v>0.00422997758777909</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03573134408721711</v>
+        <v>0.03667880959233744</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -12528,19 +12528,19 @@
         <v>11380</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5440</v>
+        <v>5741</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21236</v>
+        <v>22300</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02448395648998515</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01170292424910215</v>
+        <v>0.01235182421208978</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04568794197253478</v>
+        <v>0.04797662637975448</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>15</v>
@@ -12549,19 +12549,19 @@
         <v>17141</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10115</v>
+        <v>9453</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>28518</v>
+        <v>29629</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.02022236819628624</v>
+        <v>0.02022236819628625</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01193362245379409</v>
+        <v>0.01115302502550191</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0336448831911176</v>
+        <v>0.03495611933077642</v>
       </c>
     </row>
     <row r="35">
@@ -12578,19 +12578,19 @@
         <v>9318</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4226</v>
+        <v>4429</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18183</v>
+        <v>19835</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02434143866618837</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01104022832038922</v>
+        <v>0.01156855743400137</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04749808066419372</v>
+        <v>0.05181413934134297</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -12599,19 +12599,19 @@
         <v>17204</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10488</v>
+        <v>10791</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26321</v>
+        <v>26273</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0370140878220127</v>
+        <v>0.03701408782201271</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02256479783720585</v>
+        <v>0.02321556666606972</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05662674125163215</v>
+        <v>0.05652534346192747</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>28</v>
@@ -12620,19 +12620,19 @@
         <v>26522</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17280</v>
+        <v>17533</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>37650</v>
+        <v>38799</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03129076736784537</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02038672505245543</v>
+        <v>0.02068491757644083</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04441909611930846</v>
+        <v>0.04577439401646612</v>
       </c>
     </row>
     <row r="36">
@@ -12649,19 +12649,19 @@
         <v>14247</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8131</v>
+        <v>7676</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24448</v>
+        <v>24139</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03721663330654258</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02124092746643023</v>
+        <v>0.02005137090663396</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0638652502104452</v>
+        <v>0.06305860918883484</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>13</v>
@@ -12670,19 +12670,19 @@
         <v>10207</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5647</v>
+        <v>5476</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16806</v>
+        <v>16919</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.02196000508108943</v>
+        <v>0.02196000508108944</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01214852847362392</v>
+        <v>0.01178173440068007</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03615737056067037</v>
+        <v>0.03639894680393909</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -12691,19 +12691,19 @@
         <v>24454</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16435</v>
+        <v>16701</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>36176</v>
+        <v>36342</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.0288503222760724</v>
+        <v>0.02885032227607241</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01938993305671228</v>
+        <v>0.01970364976359674</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04268005607769395</v>
+        <v>0.04287618364512084</v>
       </c>
     </row>
     <row r="37">
@@ -12720,19 +12720,19 @@
         <v>3318</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9479</v>
+        <v>10203</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.008666544237275671</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002631956730190662</v>
+        <v>0.002644405656264048</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02476288004809571</v>
+        <v>0.02665292080516735</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -12741,19 +12741,19 @@
         <v>7952</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3490</v>
+        <v>3417</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15212</v>
+        <v>15303</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0171073352318625</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.007507984372090031</v>
+        <v>0.007351420307951114</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03272814469957921</v>
+        <v>0.03292352552908855</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -12762,19 +12762,19 @@
         <v>11269</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6018</v>
+        <v>5749</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>20807</v>
+        <v>20045</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01329523950076058</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007100314473065234</v>
+        <v>0.006782222861254269</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02454720657377103</v>
+        <v>0.02364899881249268</v>
       </c>
     </row>
     <row r="38">
@@ -12791,19 +12791,19 @@
         <v>329720</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>314641</v>
+        <v>315079</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>342980</v>
+        <v>344213</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8613246074279911</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.821934531389314</v>
+        <v>0.8230769964383808</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8959621350402363</v>
+        <v>0.8991826241366483</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>614</v>
@@ -12812,19 +12812,19 @@
         <v>385713</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>369232</v>
+        <v>368453</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>399564</v>
+        <v>401719</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.8298327153557781</v>
+        <v>0.8298327153557783</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7943750759573189</v>
+        <v>0.7927001587796777</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8596328602271381</v>
+        <v>0.8642696967736773</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1054</v>
@@ -12833,19 +12833,19 @@
         <v>715433</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>694264</v>
+        <v>695082</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>735527</v>
+        <v>736767</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8440553287826237</v>
+        <v>0.8440553287826236</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8190801569915511</v>
+        <v>0.8200459697011515</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8677623175735976</v>
+        <v>0.8692246389316788</v>
       </c>
     </row>
     <row r="39">
@@ -12937,19 +12937,19 @@
         <v>108068</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>85196</v>
+        <v>87310</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>129814</v>
+        <v>132760</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.07594490253732171</v>
+        <v>0.0759449025373217</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0598712579251508</v>
+        <v>0.06135733588365148</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09122686744937407</v>
+        <v>0.09329721649946776</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>147</v>
@@ -12958,19 +12958,19 @@
         <v>116707</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>99612</v>
+        <v>99054</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>137236</v>
+        <v>138565</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07286300910545235</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06218995465809819</v>
+        <v>0.06184208549368189</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08567993646773249</v>
+        <v>0.08650947461569837</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>233</v>
@@ -12979,19 +12979,19 @@
         <v>224775</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>195737</v>
+        <v>197201</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>255319</v>
+        <v>252646</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07431289116224224</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06471249424694131</v>
+        <v>0.06519664717685411</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08441089660750078</v>
+        <v>0.08352725985061789</v>
       </c>
     </row>
     <row r="41">
@@ -13058,16 +13058,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6289</v>
+        <v>5903</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.001213824109764553</v>
+        <v>0.001213824109764552</v>
       </c>
       <c r="H42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.004419278799639114</v>
+        <v>0.004148275206850916</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -13079,16 +13079,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3954</v>
+        <v>3723</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.0004101218056959084</v>
+        <v>0.0004101218056959083</v>
       </c>
       <c r="O42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.002468876967247059</v>
+        <v>0.002324495635303741</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -13097,19 +13097,19 @@
         <v>2384</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6385</v>
+        <v>6621</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0007882249346425223</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0002172132813316123</v>
+        <v>0.000216910170271661</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.002110821166782331</v>
+        <v>0.002188993340796498</v>
       </c>
     </row>
     <row r="43">
@@ -13126,19 +13126,19 @@
         <v>17338</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10225</v>
+        <v>9638</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29204</v>
+        <v>27413</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01218425685740551</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.007185571518576755</v>
+        <v>0.006773043178717936</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02052341211676086</v>
+        <v>0.01926438955762066</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>27</v>
@@ -13147,19 +13147,19 @@
         <v>24777</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15746</v>
+        <v>16113</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>36792</v>
+        <v>39031</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01546879171356785</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.009830636983704543</v>
+        <v>0.01005947081650752</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02297023884857307</v>
+        <v>0.02436797506305847</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>43</v>
@@ -13168,19 +13168,19 @@
         <v>42115</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>29280</v>
+        <v>30017</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>57871</v>
+        <v>57245</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01392357665077374</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.009680320316362529</v>
+        <v>0.009923874023220045</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01913270527718361</v>
+        <v>0.0189256114468106</v>
       </c>
     </row>
     <row r="44">
@@ -13197,19 +13197,19 @@
         <v>57567</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>43234</v>
+        <v>43346</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>76843</v>
+        <v>77550</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04045555064154633</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0303827473931777</v>
+        <v>0.03046134236089809</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05400166408927332</v>
+        <v>0.05449796369247414</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>79</v>
@@ -13218,19 +13218,19 @@
         <v>57702</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>45560</v>
+        <v>43979</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>73428</v>
+        <v>71559</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.03602505696566063</v>
+        <v>0.03602505696566062</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02844449839349078</v>
+        <v>0.0274570793679502</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0458430185301253</v>
+        <v>0.04467613870509145</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>130</v>
@@ -13239,19 +13239,19 @@
         <v>115270</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>96591</v>
+        <v>96036</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>139878</v>
+        <v>141661</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.03810939032286286</v>
+        <v>0.03810939032286287</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03193409634029229</v>
+        <v>0.03175057581122172</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04624517593660429</v>
+        <v>0.04683466789024011</v>
       </c>
     </row>
     <row r="45">
@@ -13268,19 +13268,19 @@
         <v>52745</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>40065</v>
+        <v>38877</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>70179</v>
+        <v>69878</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.03706654508449658</v>
+        <v>0.03706654508449657</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02815573796285169</v>
+        <v>0.02732048751756615</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04931819569728885</v>
+        <v>0.04910661597312367</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>66</v>
@@ -13289,19 +13289,19 @@
         <v>52342</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>40874</v>
+        <v>40305</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>65517</v>
+        <v>64722</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03267862673807213</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02551872288688948</v>
+        <v>0.02516370149827529</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04090368136605348</v>
+        <v>0.04040781459333401</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>113</v>
@@ -13310,19 +13310,19 @@
         <v>105087</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>86967</v>
+        <v>86671</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>125845</v>
+        <v>125668</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03474293045842532</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02875221306144411</v>
+        <v>0.02865415311121588</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04160567957567701</v>
+        <v>0.04154721362290264</v>
       </c>
     </row>
     <row r="46">
@@ -13339,19 +13339,19 @@
         <v>11559</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5626</v>
+        <v>5307</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22707</v>
+        <v>24146</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.008123085038850838</v>
+        <v>0.008123085038850836</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003953993203847487</v>
+        <v>0.003729231942924821</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01595732181594566</v>
+        <v>0.01696834479183332</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -13360,19 +13360,19 @@
         <v>19998</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>12776</v>
+        <v>12692</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>31962</v>
+        <v>31190</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01248505508625328</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007976464493005136</v>
+        <v>0.007924087331582541</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01995477124309493</v>
+        <v>0.01947250062823182</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>29</v>
@@ -13381,19 +13381,19 @@
         <v>31557</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>21218</v>
+        <v>21549</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>46871</v>
+        <v>47392</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.01043295878772954</v>
+        <v>0.01043295878772953</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00701480106281548</v>
+        <v>0.007124364912429427</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0154961324478917</v>
+        <v>0.01566821881105503</v>
       </c>
     </row>
     <row r="47">
@@ -13410,19 +13410,19 @@
         <v>1173976</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1143561</v>
+        <v>1142850</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1203404</v>
+        <v>1202895</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8250118357306145</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8036375370397185</v>
+        <v>0.803138270896316</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8456922461343314</v>
+        <v>0.8453346648390311</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2235</v>
@@ -13431,19 +13431,19 @@
         <v>1329548</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1300665</v>
+        <v>1303425</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1354225</v>
+        <v>1356750</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.8300693385852979</v>
+        <v>0.8300693385852977</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.812037183775875</v>
+        <v>0.8137600021583696</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.8454758142495541</v>
+        <v>0.8470525702651804</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3693</v>
@@ -13452,19 +13452,19 @@
         <v>2503523</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2461552</v>
+        <v>2463471</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2546397</v>
+        <v>2544502</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.8276900276833238</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8138137979837266</v>
+        <v>0.8144484159712739</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8418644165270064</v>
+        <v>0.8412381291391016</v>
       </c>
     </row>
     <row r="48">
